--- a/Factures_Excel/1663 - Multi-Plis.xlsx
+++ b/Factures_Excel/1663 - Multi-Plis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A48C192-9974-4227-8305-7F9A5DDEB0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAF0609-9AB4-49BB-96EA-4C8819F86A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22-12-22" sheetId="4" r:id="rId1"/>
@@ -25,9 +25,10 @@
     <sheet name="Activités" sheetId="5" r:id="rId10"/>
     <sheet name="2024-09-06 - 24-24491" sheetId="14" r:id="rId11"/>
     <sheet name="2024-11-02 - 24-24602" sheetId="15" r:id="rId12"/>
+    <sheet name="2025-03-01 - 25-24759" sheetId="16" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
@@ -48,6 +49,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'09-12-23'!$A$1:$F$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'19-02-24'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'2024-11-02 - 24-24602'!$A$1:$F$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'2025-03-01 - 25-24759'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'22-12-22'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'26-05-24'!$A$1:$F$91</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'28-03-24'!$A$1:$F$89</definedName>
@@ -71,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="163">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -544,6 +546,24 @@
   </si>
   <si>
     <t xml:space="preserve"> - Analyse des différentes documents soumis et répondre à vos diverses questions;</t>
+  </si>
+  <si>
+    <t>Le 1 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24759</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Finalisation des formulaires de roulements et de CDC ;</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Répondre aux diverses demandes comptables et fiscales de vos comptables afférentes à la réorganisation;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail avec votre comptable à la préparation/révision des états financiers et déclarations de revenus des différentes sociétés;</t>
   </si>
 </sst>
 </file>
@@ -1431,6 +1451,100 @@
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="49" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="48" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1443,27 +1557,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1503,94 +1602,15 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="49" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="48" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1846,6 +1866,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12289" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E84AC7-58DF-B53C-57E3-024451655B8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3057,14 +3143,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="141" t="s">
+      <c r="A30" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3085,269 +3171,269 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="138"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
+      <c r="B34" s="163"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="138" t="s">
+      <c r="B35" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="138"/>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
+      <c r="B36" s="163"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="138" t="s">
+      <c r="B37" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="138"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
+      <c r="B38" s="163"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="138" t="s">
+      <c r="B39" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="138"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="138" t="s">
+      <c r="B41" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="138" t="s">
+      <c r="B43" s="163" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="138"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
+      <c r="B44" s="163"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="138" t="s">
+      <c r="B45" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
+      <c r="B46" s="163"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="138"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="138"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="138"/>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="138"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="138"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="138"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
+      <c r="B54" s="163"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="138"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="138"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="138"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="138"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="138"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="138"/>
+      <c r="B62" s="163"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="163"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="138"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="163"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="138"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="138"/>
+      <c r="B64" s="163"/>
+      <c r="C64" s="163"/>
+      <c r="D64" s="163"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3377,17 +3463,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="138"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="138"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="163"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="138"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="138"/>
+      <c r="B68" s="163"/>
+      <c r="C68" s="163"/>
+      <c r="D68" s="163"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3494,19 +3580,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="142"/>
-      <c r="C77" s="142"/>
-      <c r="D77" s="142"/>
+      <c r="B77" s="165"/>
+      <c r="C77" s="165"/>
+      <c r="D77" s="165"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="139" t="s">
+      <c r="B78" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="139"/>
-      <c r="D78" s="139"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3514,9 +3600,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="142"/>
-      <c r="C79" s="142"/>
-      <c r="D79" s="142"/>
+      <c r="B79" s="165"/>
+      <c r="C79" s="165"/>
+      <c r="D79" s="165"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3551,31 +3637,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="136"/>
-      <c r="C83" s="136"/>
-      <c r="D83" s="136"/>
-      <c r="E83" s="136"/>
+      <c r="B83" s="168"/>
+      <c r="C83" s="168"/>
+      <c r="D83" s="168"/>
+      <c r="E83" s="168"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="144" t="s">
+      <c r="A84" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="144"/>
-      <c r="C84" s="144"/>
-      <c r="D84" s="144"/>
-      <c r="E84" s="144"/>
-      <c r="F84" s="144"/>
+      <c r="B84" s="162"/>
+      <c r="C84" s="162"/>
+      <c r="D84" s="162"/>
+      <c r="E84" s="162"/>
+      <c r="F84" s="162"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="140" t="s">
+      <c r="A85" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="140"/>
-      <c r="C85" s="140"/>
-      <c r="D85" s="140"/>
-      <c r="E85" s="140"/>
-      <c r="F85" s="140"/>
+      <c r="B85" s="171"/>
+      <c r="C85" s="171"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="171"/>
+      <c r="F85" s="171"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3587,26 +3673,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="137"/>
-      <c r="C87" s="137"/>
-      <c r="D87" s="137"/>
-      <c r="E87" s="137"/>
+      <c r="B87" s="169"/>
+      <c r="C87" s="169"/>
+      <c r="D87" s="169"/>
+      <c r="E87" s="169"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="143" t="s">
+      <c r="A88" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="143"/>
-      <c r="C88" s="143"/>
-      <c r="D88" s="143"/>
-      <c r="E88" s="143"/>
-      <c r="F88" s="143"/>
+      <c r="B88" s="161"/>
+      <c r="C88" s="161"/>
+      <c r="D88" s="161"/>
+      <c r="E88" s="161"/>
+      <c r="F88" s="161"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="134"/>
-      <c r="C90" s="135"/>
-      <c r="D90" s="135"/>
+      <c r="B90" s="166"/>
+      <c r="C90" s="167"/>
+      <c r="D90" s="167"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3616,34 +3702,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -3660,6 +3718,34 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -3669,7 +3755,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3696,10 +3782,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="145"/>
+      <c r="C1" s="172"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4332,13 +4418,13 @@
       <c r="F29" s="70"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="148" t="s">
+      <c r="A30" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
       <c r="F30" s="71"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4827,10 +4913,10 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="149" t="s">
+      <c r="B81" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="150"/>
+      <c r="C81" s="177"/>
       <c r="D81" s="124"/>
       <c r="E81" s="125">
         <v>30123.45</v>
@@ -4847,30 +4933,30 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="128"/>
-      <c r="B83" s="151"/>
-      <c r="C83" s="152"/>
-      <c r="D83" s="153"/>
-      <c r="E83" s="153"/>
+      <c r="B83" s="178"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
       <c r="F83" s="129"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="154" t="s">
+      <c r="A84" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="154"/>
-      <c r="C84" s="154"/>
-      <c r="D84" s="155"/>
-      <c r="E84" s="155"/>
+      <c r="B84" s="181"/>
+      <c r="C84" s="181"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
       <c r="F84" s="54"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="156" t="s">
+      <c r="A85" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="156"/>
-      <c r="C85" s="156"/>
-      <c r="D85" s="157"/>
-      <c r="E85" s="157"/>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
       <c r="F85" s="50"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -4890,21 +4976,21 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="143" t="s">
+      <c r="A88" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="143"/>
-      <c r="C88" s="143"/>
-      <c r="D88" s="143"/>
-      <c r="E88" s="143"/>
-      <c r="F88" s="143"/>
+      <c r="B88" s="161"/>
+      <c r="C88" s="161"/>
+      <c r="D88" s="161"/>
+      <c r="E88" s="161"/>
+      <c r="F88" s="161"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>
-      <c r="B89" s="146"/>
-      <c r="C89" s="146"/>
-      <c r="D89" s="147"/>
-      <c r="E89" s="147"/>
+      <c r="B89" s="173"/>
+      <c r="C89" s="173"/>
+      <c r="D89" s="174"/>
+      <c r="E89" s="174"/>
       <c r="F89" s="50"/>
     </row>
   </sheetData>
@@ -4937,6 +5023,825 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="134"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="137"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="138"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="139"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="142" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="143"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="142"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="142"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="142"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="142"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="142"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="142"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="146"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="144"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="144"/>
+      <c r="F53" s="144"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="144"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="144"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="144"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="144"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="144"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="144"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="150"/>
+      <c r="D64" s="141"/>
+      <c r="E64" s="144"/>
+      <c r="F64" s="144"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="142"/>
+      <c r="C65" s="151" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="152" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="153">
+        <v>6</v>
+      </c>
+      <c r="D66" s="154">
+        <v>350</v>
+      </c>
+      <c r="E66" s="155"/>
+      <c r="F66" s="155"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="147"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="154"/>
+      <c r="E67" s="144"/>
+      <c r="F67" s="144"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="100"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="101">
+        <v>2100</v>
+      </c>
+      <c r="F69" s="101"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="104"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="105">
+        <v>0</v>
+      </c>
+      <c r="F70" s="105"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="157" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="104"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="105">
+        <v>0</v>
+      </c>
+      <c r="F71" s="105"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="104"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="105">
+        <v>0</v>
+      </c>
+      <c r="F72" s="105"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="100"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="107">
+        <v>2100</v>
+      </c>
+      <c r="F73" s="107"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="108">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="104"/>
+      <c r="E74" s="109">
+        <v>105</v>
+      </c>
+      <c r="F74" s="109"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="111">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="104"/>
+      <c r="E75" s="112">
+        <v>209.48</v>
+      </c>
+      <c r="F75" s="109"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="100"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="117">
+        <v>2414.48</v>
+      </c>
+      <c r="F77" s="118"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="110"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="110"/>
+      <c r="E78" s="119"/>
+      <c r="F78" s="110"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="110"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="110"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="119"/>
+      <c r="F80" s="110"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="186" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="187"/>
+      <c r="D81" s="158"/>
+      <c r="E81" s="159">
+        <v>2414.48</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="128"/>
+      <c r="B83" s="178"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
+      <c r="F83" s="160"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="181"/>
+      <c r="C84" s="181"/>
+      <c r="D84" s="181"/>
+      <c r="E84" s="181"/>
+      <c r="F84" s="113"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="183" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="183"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="130"/>
+      <c r="B86" s="130"/>
+      <c r="C86" s="130"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="130"/>
+      <c r="B87" s="130"/>
+      <c r="C87" s="130"/>
+      <c r="D87" s="130"/>
+      <c r="E87" s="130"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="188"/>
+      <c r="C88" s="188"/>
+      <c r="D88" s="188"/>
+      <c r="E88" s="188"/>
+      <c r="F88" s="188"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F8EA18-31D2-4C85-B3C3-25E9816B3FB1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
@@ -5114,7 +6019,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
       <c r="B21" s="59" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
@@ -5185,342 +6090,358 @@
         <v>11</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F28" s="67"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="158"/>
-      <c r="B29" s="158"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
+      <c r="A29" s="134"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="161" t="s">
+      <c r="A30" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="161"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="162"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="137"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="163"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="78"/>
       <c r="B32" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="164"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="78"/>
       <c r="B33" s="78"/>
       <c r="C33" s="78"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="78"/>
-      <c r="B34" s="167" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" s="168"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
+      <c r="B34" s="142" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="143"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="78"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="169"/>
+      <c r="B35" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="145"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="78"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
+      <c r="B36" s="142" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="143"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="78"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
+      <c r="B37" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="143"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="78"/>
-      <c r="B38" s="167"/>
-      <c r="C38" s="168"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
+      <c r="B38" s="142" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="143"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="78"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="168"/>
-      <c r="D39" s="169"/>
-      <c r="E39" s="169"/>
-      <c r="F39" s="169"/>
+      <c r="B39" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="143"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="78"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="170"/>
-      <c r="D40" s="169"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="169"/>
+      <c r="B40" s="142" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="145"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="78"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="168"/>
-      <c r="D41" s="169"/>
-      <c r="E41" s="169"/>
-      <c r="F41" s="169"/>
+      <c r="B41" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="143"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="169"/>
-      <c r="E42" s="169"/>
-      <c r="F42" s="169"/>
+      <c r="B42" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="143"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="78"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="168"/>
-      <c r="D43" s="169"/>
-      <c r="E43" s="169"/>
-      <c r="F43" s="169"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="78"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="169"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="78"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="168"/>
-      <c r="D45" s="169"/>
-      <c r="E45" s="169"/>
-      <c r="F45" s="169"/>
+      <c r="B45" s="142"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="78"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="168"/>
-      <c r="D46" s="169"/>
-      <c r="E46" s="169"/>
-      <c r="F46" s="169"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="78"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="168"/>
-      <c r="D47" s="169"/>
-      <c r="E47" s="169"/>
-      <c r="F47" s="169"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="78"/>
-      <c r="B48" s="167"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="169"/>
-      <c r="E48" s="169"/>
-      <c r="F48" s="169"/>
+      <c r="B48" s="142"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="78"/>
-      <c r="B49" s="167"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="169"/>
-      <c r="E49" s="169"/>
-      <c r="F49" s="169"/>
+      <c r="B49" s="142"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="78"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="171"/>
-      <c r="D50" s="171"/>
-      <c r="E50" s="169"/>
-      <c r="F50" s="169"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="146"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="78"/>
-      <c r="B51" s="167"/>
-      <c r="C51" s="168"/>
-      <c r="D51" s="169"/>
-      <c r="E51" s="169"/>
-      <c r="F51" s="169"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="78"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="168"/>
-      <c r="D52" s="169"/>
-      <c r="E52" s="169"/>
-      <c r="F52" s="169"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="144"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="78"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="168"/>
-      <c r="D53" s="169"/>
-      <c r="E53" s="169"/>
-      <c r="F53" s="169"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="144"/>
+      <c r="F53" s="144"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="78"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="168"/>
-      <c r="D54" s="169"/>
-      <c r="E54" s="169"/>
-      <c r="F54" s="169"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="144"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="78"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="168"/>
-      <c r="D55" s="169"/>
-      <c r="E55" s="169"/>
-      <c r="F55" s="169"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="78"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="168"/>
-      <c r="D56" s="169"/>
-      <c r="E56" s="169"/>
-      <c r="F56" s="169"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="144"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="78"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="168"/>
-      <c r="D57" s="169"/>
-      <c r="E57" s="169"/>
-      <c r="F57" s="169"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="78"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="168"/>
-      <c r="D58" s="169"/>
-      <c r="E58" s="169"/>
-      <c r="F58" s="169"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="78"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="168"/>
-      <c r="D59" s="169"/>
-      <c r="E59" s="169"/>
-      <c r="F59" s="169"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="144"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="78"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="168"/>
-      <c r="D60" s="169"/>
-      <c r="E60" s="169"/>
-      <c r="F60" s="169"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="78"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="168"/>
-      <c r="D61" s="169"/>
-      <c r="E61" s="169"/>
-      <c r="F61" s="169"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="144"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="78"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="168"/>
-      <c r="D62" s="169"/>
-      <c r="E62" s="169"/>
-      <c r="F62" s="169"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="144"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="78"/>
-      <c r="B63" s="172"/>
-      <c r="C63" s="173"/>
-      <c r="D63" s="174"/>
-      <c r="E63" s="169"/>
-      <c r="F63" s="169"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="144"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
-      <c r="B64" s="172"/>
-      <c r="C64" s="175"/>
-      <c r="D64" s="166"/>
-      <c r="E64" s="169"/>
-      <c r="F64" s="169"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="150"/>
+      <c r="D64" s="141"/>
+      <c r="E64" s="144"/>
+      <c r="F64" s="144"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="78"/>
-      <c r="B65" s="167"/>
-      <c r="C65" s="176" t="s">
+      <c r="B65" s="142"/>
+      <c r="C65" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="177" t="s">
+      <c r="D65" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="169"/>
-      <c r="F65" s="169"/>
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="78"/>
-      <c r="B66" s="167"/>
-      <c r="C66" s="178">
-        <v>6</v>
-      </c>
-      <c r="D66" s="179">
-        <v>350</v>
-      </c>
-      <c r="E66" s="180"/>
-      <c r="F66" s="180"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="153">
+        <v>24</v>
+      </c>
+      <c r="D66" s="154">
+        <v>400</v>
+      </c>
+      <c r="E66" s="155"/>
+      <c r="F66" s="155"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="78"/>
-      <c r="B67" s="172"/>
-      <c r="C67" s="178"/>
-      <c r="D67" s="179"/>
-      <c r="E67" s="169"/>
-      <c r="F67" s="169"/>
+      <c r="B67" s="147"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="154"/>
+      <c r="E67" s="144"/>
+      <c r="F67" s="144"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
-      <c r="B68" s="172"/>
-      <c r="C68" s="181"/>
-      <c r="D68" s="181"/>
-      <c r="E68" s="181"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
       <c r="F68" s="78"/>
     </row>
     <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5531,7 +6452,7 @@
       <c r="C69" s="100"/>
       <c r="D69" s="60"/>
       <c r="E69" s="101">
-        <v>2100</v>
+        <v>9600</v>
       </c>
       <c r="F69" s="101"/>
     </row>
@@ -5549,7 +6470,7 @@
     </row>
     <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="62"/>
-      <c r="B71" s="182" t="s">
+      <c r="B71" s="157" t="s">
         <v>152</v>
       </c>
       <c r="C71" s="104"/>
@@ -5561,7 +6482,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="62"/>
-      <c r="B72" s="182" t="s">
+      <c r="B72" s="157" t="s">
         <v>13</v>
       </c>
       <c r="C72" s="104"/>
@@ -5579,7 +6500,7 @@
       <c r="C73" s="100"/>
       <c r="D73" s="60"/>
       <c r="E73" s="107">
-        <v>2100</v>
+        <v>9600</v>
       </c>
       <c r="F73" s="107"/>
     </row>
@@ -5593,7 +6514,7 @@
       </c>
       <c r="D74" s="104"/>
       <c r="E74" s="109">
-        <v>105</v>
+        <v>480</v>
       </c>
       <c r="F74" s="109"/>
     </row>
@@ -5607,7 +6528,7 @@
       </c>
       <c r="D75" s="104"/>
       <c r="E75" s="112">
-        <v>209.48</v>
+        <v>957.6</v>
       </c>
       <c r="F75" s="109"/>
     </row>
@@ -5627,7 +6548,7 @@
       <c r="C77" s="100"/>
       <c r="D77" s="116"/>
       <c r="E77" s="117">
-        <v>2414.48</v>
+        <v>11037.6</v>
       </c>
       <c r="F77" s="118"/>
     </row>
@@ -5661,13 +6582,13 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="183" t="s">
+      <c r="B81" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="184"/>
-      <c r="D81" s="185"/>
-      <c r="E81" s="186">
-        <v>2414.48</v>
+      <c r="C81" s="187"/>
+      <c r="D81" s="158"/>
+      <c r="E81" s="159">
+        <v>11037.6</v>
       </c>
       <c r="F81" s="61"/>
     </row>
@@ -5681,30 +6602,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="128"/>
-      <c r="B83" s="151"/>
-      <c r="C83" s="152"/>
-      <c r="D83" s="152"/>
-      <c r="E83" s="152"/>
-      <c r="F83" s="187"/>
+      <c r="B83" s="178"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
+      <c r="F83" s="160"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="154" t="s">
+      <c r="A84" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="154"/>
-      <c r="C84" s="154"/>
-      <c r="D84" s="154"/>
-      <c r="E84" s="154"/>
+      <c r="B84" s="181"/>
+      <c r="C84" s="181"/>
+      <c r="D84" s="181"/>
+      <c r="E84" s="181"/>
       <c r="F84" s="113"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="156" t="s">
+      <c r="A85" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="156"/>
-      <c r="C85" s="156"/>
-      <c r="D85" s="156"/>
-      <c r="E85" s="156"/>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="183"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5744,7 +6665,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5892,14 +6813,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="141" t="s">
+      <c r="A30" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -5920,275 +6841,275 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="138" t="s">
+      <c r="B34" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="138"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="138" t="s">
+      <c r="B36" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="138" t="s">
+      <c r="B40" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="138" t="s">
+      <c r="B42" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="138" t="s">
+      <c r="B44" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="138" t="s">
+      <c r="B46" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="138" t="s">
+      <c r="B48" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="138"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="138" t="s">
+      <c r="B50" s="163" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="138" t="s">
+      <c r="B52" s="163" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="138"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="138" t="s">
+      <c r="B54" s="163" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="138"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="138"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="138" t="s">
+      <c r="B56" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="138" t="s">
+      <c r="B58" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="138"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="138"/>
+      <c r="B62" s="163"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="163"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="138"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="163"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -6218,17 +7139,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="138"/>
-      <c r="C66" s="138"/>
-      <c r="D66" s="138"/>
+      <c r="B66" s="163"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="163"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="138"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="138"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="163"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -6335,19 +7256,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="142"/>
-      <c r="C76" s="142"/>
-      <c r="D76" s="142"/>
+      <c r="B76" s="165"/>
+      <c r="C76" s="165"/>
+      <c r="D76" s="165"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="139" t="s">
+      <c r="B77" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="139"/>
-      <c r="D77" s="139"/>
+      <c r="C77" s="170"/>
+      <c r="D77" s="170"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -6355,9 +7276,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="142"/>
-      <c r="C78" s="142"/>
-      <c r="D78" s="142"/>
+      <c r="B78" s="165"/>
+      <c r="C78" s="165"/>
+      <c r="D78" s="165"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -6392,31 +7313,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="136"/>
-      <c r="C82" s="136"/>
-      <c r="D82" s="136"/>
-      <c r="E82" s="136"/>
+      <c r="B82" s="168"/>
+      <c r="C82" s="168"/>
+      <c r="D82" s="168"/>
+      <c r="E82" s="168"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="144" t="s">
+      <c r="A83" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="144"/>
-      <c r="C83" s="144"/>
-      <c r="D83" s="144"/>
-      <c r="E83" s="144"/>
-      <c r="F83" s="144"/>
+      <c r="B83" s="162"/>
+      <c r="C83" s="162"/>
+      <c r="D83" s="162"/>
+      <c r="E83" s="162"/>
+      <c r="F83" s="162"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="140" t="s">
+      <c r="A84" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="140"/>
-      <c r="C84" s="140"/>
-      <c r="D84" s="140"/>
-      <c r="E84" s="140"/>
-      <c r="F84" s="140"/>
+      <c r="B84" s="171"/>
+      <c r="C84" s="171"/>
+      <c r="D84" s="171"/>
+      <c r="E84" s="171"/>
+      <c r="F84" s="171"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -6428,26 +7349,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="137"/>
-      <c r="C86" s="137"/>
-      <c r="D86" s="137"/>
-      <c r="E86" s="137"/>
+      <c r="B86" s="169"/>
+      <c r="C86" s="169"/>
+      <c r="D86" s="169"/>
+      <c r="E86" s="169"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="143" t="s">
+      <c r="A87" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="143"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="143"/>
-      <c r="F87" s="143"/>
+      <c r="B87" s="161"/>
+      <c r="C87" s="161"/>
+      <c r="D87" s="161"/>
+      <c r="E87" s="161"/>
+      <c r="F87" s="161"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="134"/>
-      <c r="C89" s="135"/>
-      <c r="D89" s="135"/>
+      <c r="B89" s="166"/>
+      <c r="C89" s="167"/>
+      <c r="D89" s="167"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -6457,12 +7378,31 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
@@ -6475,31 +7415,12 @@
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{2D9A563E-17E9-4439-9B4B-21E936A45F74}">
@@ -6508,7 +7429,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6657,14 +7578,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="141" t="s">
+      <c r="A30" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -6685,277 +7606,277 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="138" t="s">
+      <c r="B34" s="163" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="138"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="138" t="s">
+      <c r="B36" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="138" t="s">
+      <c r="B40" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="138" t="s">
+      <c r="B42" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="138" t="s">
+      <c r="B44" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="138" t="s">
+      <c r="B46" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="138" t="s">
+      <c r="B48" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="138"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="138" t="s">
+      <c r="B50" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="138" t="s">
+      <c r="B52" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="138"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="138" t="s">
+      <c r="B54" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="138"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="138"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="138" t="s">
+      <c r="B56" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="138" t="s">
+      <c r="B58" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="138"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="138" t="s">
+      <c r="B60" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="138"/>
+      <c r="B62" s="163"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="163"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="138"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="163"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -6985,17 +7906,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="138"/>
-      <c r="C66" s="138"/>
-      <c r="D66" s="138"/>
+      <c r="B66" s="163"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="163"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="138"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="138"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="163"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -7102,19 +8023,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="142"/>
-      <c r="C76" s="142"/>
-      <c r="D76" s="142"/>
+      <c r="B76" s="165"/>
+      <c r="C76" s="165"/>
+      <c r="D76" s="165"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="139" t="s">
+      <c r="B77" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="139"/>
-      <c r="D77" s="139"/>
+      <c r="C77" s="170"/>
+      <c r="D77" s="170"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -7122,9 +8043,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="142"/>
-      <c r="C78" s="142"/>
-      <c r="D78" s="142"/>
+      <c r="B78" s="165"/>
+      <c r="C78" s="165"/>
+      <c r="D78" s="165"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -7159,31 +8080,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="136"/>
-      <c r="C82" s="136"/>
-      <c r="D82" s="136"/>
-      <c r="E82" s="136"/>
+      <c r="B82" s="168"/>
+      <c r="C82" s="168"/>
+      <c r="D82" s="168"/>
+      <c r="E82" s="168"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="144" t="s">
+      <c r="A83" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="144"/>
-      <c r="C83" s="144"/>
-      <c r="D83" s="144"/>
-      <c r="E83" s="144"/>
-      <c r="F83" s="144"/>
+      <c r="B83" s="162"/>
+      <c r="C83" s="162"/>
+      <c r="D83" s="162"/>
+      <c r="E83" s="162"/>
+      <c r="F83" s="162"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="140" t="s">
+      <c r="A84" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="140"/>
-      <c r="C84" s="140"/>
-      <c r="D84" s="140"/>
-      <c r="E84" s="140"/>
-      <c r="F84" s="140"/>
+      <c r="B84" s="171"/>
+      <c r="C84" s="171"/>
+      <c r="D84" s="171"/>
+      <c r="E84" s="171"/>
+      <c r="F84" s="171"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -7195,26 +8116,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="137"/>
-      <c r="C86" s="137"/>
-      <c r="D86" s="137"/>
-      <c r="E86" s="137"/>
+      <c r="B86" s="169"/>
+      <c r="C86" s="169"/>
+      <c r="D86" s="169"/>
+      <c r="E86" s="169"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="143" t="s">
+      <c r="A87" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="143"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="143"/>
-      <c r="F87" s="143"/>
+      <c r="B87" s="161"/>
+      <c r="C87" s="161"/>
+      <c r="D87" s="161"/>
+      <c r="E87" s="161"/>
+      <c r="F87" s="161"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="134"/>
-      <c r="C89" s="135"/>
-      <c r="D89" s="135"/>
+      <c r="B89" s="166"/>
+      <c r="C89" s="167"/>
+      <c r="D89" s="167"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -7224,6 +8145,35 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B78:D78"/>
@@ -7238,35 +8188,6 @@
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{6447EC37-8CD5-4033-9C4B-3B80CEEA6430}">
@@ -7275,7 +8196,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -7424,14 +8345,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="141" t="s">
+      <c r="A30" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -7452,277 +8373,277 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="138" t="s">
+      <c r="B34" s="163" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="138"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="138" t="s">
+      <c r="B36" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="138" t="s">
+      <c r="B40" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="138" t="s">
+      <c r="B42" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="138" t="s">
+      <c r="B44" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="138" t="s">
+      <c r="B46" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="138" t="s">
+      <c r="B48" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="138"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="138" t="s">
+      <c r="B50" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="138" t="s">
+      <c r="B52" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="138"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="138" t="s">
+      <c r="B54" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="138"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="138"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="138" t="s">
+      <c r="B56" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="138" t="s">
+      <c r="B58" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="138"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="138" t="s">
+      <c r="B60" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="138"/>
+      <c r="B62" s="163"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="163"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="138"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="163"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -7752,17 +8673,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="138"/>
-      <c r="C66" s="138"/>
-      <c r="D66" s="138"/>
+      <c r="B66" s="163"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="163"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="138"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="138"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="163"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -7869,19 +8790,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="142"/>
-      <c r="C76" s="142"/>
-      <c r="D76" s="142"/>
+      <c r="B76" s="165"/>
+      <c r="C76" s="165"/>
+      <c r="D76" s="165"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="139" t="s">
+      <c r="B77" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="139"/>
-      <c r="D77" s="139"/>
+      <c r="C77" s="170"/>
+      <c r="D77" s="170"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -7889,9 +8810,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="142"/>
-      <c r="C78" s="142"/>
-      <c r="D78" s="142"/>
+      <c r="B78" s="165"/>
+      <c r="C78" s="165"/>
+      <c r="D78" s="165"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -7926,31 +8847,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="136"/>
-      <c r="C82" s="136"/>
-      <c r="D82" s="136"/>
-      <c r="E82" s="136"/>
+      <c r="B82" s="168"/>
+      <c r="C82" s="168"/>
+      <c r="D82" s="168"/>
+      <c r="E82" s="168"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="144" t="s">
+      <c r="A83" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="144"/>
-      <c r="C83" s="144"/>
-      <c r="D83" s="144"/>
-      <c r="E83" s="144"/>
-      <c r="F83" s="144"/>
+      <c r="B83" s="162"/>
+      <c r="C83" s="162"/>
+      <c r="D83" s="162"/>
+      <c r="E83" s="162"/>
+      <c r="F83" s="162"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="140" t="s">
+      <c r="A84" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="140"/>
-      <c r="C84" s="140"/>
-      <c r="D84" s="140"/>
-      <c r="E84" s="140"/>
-      <c r="F84" s="140"/>
+      <c r="B84" s="171"/>
+      <c r="C84" s="171"/>
+      <c r="D84" s="171"/>
+      <c r="E84" s="171"/>
+      <c r="F84" s="171"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -7962,26 +8883,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="137"/>
-      <c r="C86" s="137"/>
-      <c r="D86" s="137"/>
-      <c r="E86" s="137"/>
+      <c r="B86" s="169"/>
+      <c r="C86" s="169"/>
+      <c r="D86" s="169"/>
+      <c r="E86" s="169"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="143" t="s">
+      <c r="A87" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="143"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="143"/>
-      <c r="F87" s="143"/>
+      <c r="B87" s="161"/>
+      <c r="C87" s="161"/>
+      <c r="D87" s="161"/>
+      <c r="E87" s="161"/>
+      <c r="F87" s="161"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="134"/>
-      <c r="C89" s="135"/>
-      <c r="D89" s="135"/>
+      <c r="B89" s="166"/>
+      <c r="C89" s="167"/>
+      <c r="D89" s="167"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -7991,6 +8912,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
@@ -8003,37 +8955,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{F72F2B1D-2364-4F39-8EA3-2E5783030665}">
@@ -8042,7 +8963,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8191,14 +9112,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="141" t="s">
+      <c r="A30" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -8219,253 +9140,253 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="138" t="s">
+      <c r="B34" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="138"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="138" t="s">
+      <c r="B36" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="138" t="s">
+      <c r="B40" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="138" t="s">
+      <c r="B42" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="138" t="s">
+      <c r="B44" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="138" t="s">
+      <c r="B46" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="138" t="s">
+      <c r="B48" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="138"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="138" t="s">
+      <c r="B50" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="138" t="s">
+      <c r="B52" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="138"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="138"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
+      <c r="B54" s="163"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="138"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="138"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="138"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="138"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="138"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
@@ -8495,17 +9416,17 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="138"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="138"/>
+      <c r="B64" s="163"/>
+      <c r="C64" s="163"/>
+      <c r="D64" s="163"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="138"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="138"/>
+      <c r="B65" s="163"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="163"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -8612,19 +9533,19 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21"/>
-      <c r="B74" s="142"/>
-      <c r="C74" s="142"/>
-      <c r="D74" s="142"/>
+      <c r="B74" s="165"/>
+      <c r="C74" s="165"/>
+      <c r="D74" s="165"/>
       <c r="E74" s="36"/>
       <c r="F74" s="21"/>
     </row>
     <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="21"/>
-      <c r="B75" s="139" t="s">
+      <c r="B75" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="139"/>
-      <c r="D75" s="139"/>
+      <c r="C75" s="170"/>
+      <c r="D75" s="170"/>
       <c r="E75" s="36">
         <v>0</v>
       </c>
@@ -8632,9 +9553,9 @@
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="142"/>
-      <c r="C76" s="142"/>
-      <c r="D76" s="142"/>
+      <c r="B76" s="165"/>
+      <c r="C76" s="165"/>
+      <c r="D76" s="165"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
@@ -8669,31 +9590,31 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="136"/>
-      <c r="C80" s="136"/>
-      <c r="D80" s="136"/>
-      <c r="E80" s="136"/>
+      <c r="B80" s="168"/>
+      <c r="C80" s="168"/>
+      <c r="D80" s="168"/>
+      <c r="E80" s="168"/>
       <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="144" t="s">
+      <c r="A81" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="144"/>
-      <c r="C81" s="144"/>
-      <c r="D81" s="144"/>
-      <c r="E81" s="144"/>
-      <c r="F81" s="144"/>
+      <c r="B81" s="162"/>
+      <c r="C81" s="162"/>
+      <c r="D81" s="162"/>
+      <c r="E81" s="162"/>
+      <c r="F81" s="162"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="140" t="s">
+      <c r="A82" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="B82" s="140"/>
-      <c r="C82" s="140"/>
-      <c r="D82" s="140"/>
-      <c r="E82" s="140"/>
-      <c r="F82" s="140"/>
+      <c r="B82" s="171"/>
+      <c r="C82" s="171"/>
+      <c r="D82" s="171"/>
+      <c r="E82" s="171"/>
+      <c r="F82" s="171"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
@@ -8705,26 +9626,26 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="137"/>
-      <c r="C84" s="137"/>
-      <c r="D84" s="137"/>
-      <c r="E84" s="137"/>
+      <c r="B84" s="169"/>
+      <c r="C84" s="169"/>
+      <c r="D84" s="169"/>
+      <c r="E84" s="169"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="143" t="s">
+      <c r="A85" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="143"/>
-      <c r="C85" s="143"/>
-      <c r="D85" s="143"/>
-      <c r="E85" s="143"/>
-      <c r="F85" s="143"/>
+      <c r="B85" s="161"/>
+      <c r="C85" s="161"/>
+      <c r="D85" s="161"/>
+      <c r="E85" s="161"/>
+      <c r="F85" s="161"/>
     </row>
     <row r="87" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="134"/>
-      <c r="C87" s="135"/>
-      <c r="D87" s="135"/>
+      <c r="B87" s="166"/>
+      <c r="C87" s="167"/>
+      <c r="D87" s="167"/>
     </row>
     <row r="88" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -8734,23 +9655,18 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -8763,18 +9679,23 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:F85"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:B76 B12:B20 B33:B65" xr:uid="{2691E24E-F965-4BA1-8053-4BEF7731BFED}">
@@ -8783,7 +9704,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8932,14 +9853,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="141" t="s">
+      <c r="A30" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -8960,279 +9881,279 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="138"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
+      <c r="B34" s="163"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="138" t="s">
+      <c r="B35" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="138"/>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
+      <c r="B36" s="163"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="138" t="s">
+      <c r="B37" s="163" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="138"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
+      <c r="B38" s="163"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="138" t="s">
+      <c r="B39" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="138"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="138" t="s">
+      <c r="B41" s="163" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="138" t="s">
+      <c r="B43" s="163" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="138"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
+      <c r="B44" s="163"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="138" t="s">
+      <c r="B45" s="163" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="138"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
+      <c r="B46" s="163"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="138" t="s">
+      <c r="B47" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="138"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="138" t="s">
+      <c r="B49" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="138"/>
-      <c r="D49" s="138"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="138"/>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="138" t="s">
+      <c r="B51" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="138"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="138" t="s">
+      <c r="B53" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="138"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
+      <c r="B54" s="163"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="138" t="s">
+      <c r="B55" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="138"/>
-      <c r="D55" s="138"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="138"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="138" t="s">
+      <c r="B57" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="138"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="138" t="s">
+      <c r="B59" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="138" t="s">
+      <c r="B61" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="138"/>
+      <c r="B62" s="163"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="163"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="138" t="s">
+      <c r="B63" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="138"/>
-      <c r="D63" s="138"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="163"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -9262,17 +10183,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="138"/>
-      <c r="C66" s="138"/>
-      <c r="D66" s="138"/>
+      <c r="B66" s="163"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="163"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="138"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="138"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="163"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -9379,19 +10300,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="142"/>
-      <c r="C76" s="142"/>
-      <c r="D76" s="142"/>
+      <c r="B76" s="165"/>
+      <c r="C76" s="165"/>
+      <c r="D76" s="165"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="139" t="s">
+      <c r="B77" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="139"/>
-      <c r="D77" s="139"/>
+      <c r="C77" s="170"/>
+      <c r="D77" s="170"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -9399,9 +10320,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="142"/>
-      <c r="C78" s="142"/>
-      <c r="D78" s="142"/>
+      <c r="B78" s="165"/>
+      <c r="C78" s="165"/>
+      <c r="D78" s="165"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -9436,31 +10357,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="136"/>
-      <c r="C82" s="136"/>
-      <c r="D82" s="136"/>
-      <c r="E82" s="136"/>
+      <c r="B82" s="168"/>
+      <c r="C82" s="168"/>
+      <c r="D82" s="168"/>
+      <c r="E82" s="168"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="144" t="s">
+      <c r="A83" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="144"/>
-      <c r="C83" s="144"/>
-      <c r="D83" s="144"/>
-      <c r="E83" s="144"/>
-      <c r="F83" s="144"/>
+      <c r="B83" s="162"/>
+      <c r="C83" s="162"/>
+      <c r="D83" s="162"/>
+      <c r="E83" s="162"/>
+      <c r="F83" s="162"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="140" t="s">
+      <c r="A84" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="140"/>
-      <c r="C84" s="140"/>
-      <c r="D84" s="140"/>
-      <c r="E84" s="140"/>
-      <c r="F84" s="140"/>
+      <c r="B84" s="171"/>
+      <c r="C84" s="171"/>
+      <c r="D84" s="171"/>
+      <c r="E84" s="171"/>
+      <c r="F84" s="171"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -9472,26 +10393,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="137"/>
-      <c r="C86" s="137"/>
-      <c r="D86" s="137"/>
-      <c r="E86" s="137"/>
+      <c r="B86" s="169"/>
+      <c r="C86" s="169"/>
+      <c r="D86" s="169"/>
+      <c r="E86" s="169"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="143" t="s">
+      <c r="A87" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="143"/>
-      <c r="C87" s="143"/>
-      <c r="D87" s="143"/>
-      <c r="E87" s="143"/>
-      <c r="F87" s="143"/>
+      <c r="B87" s="161"/>
+      <c r="C87" s="161"/>
+      <c r="D87" s="161"/>
+      <c r="E87" s="161"/>
+      <c r="F87" s="161"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="134"/>
-      <c r="C89" s="135"/>
-      <c r="D89" s="135"/>
+      <c r="B89" s="166"/>
+      <c r="C89" s="167"/>
+      <c r="D89" s="167"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -9501,6 +10422,35 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B76:D76"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
@@ -9515,35 +10465,6 @@
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{C3AF6657-7FA5-4CC7-9BF9-B43291DF59DB}">
@@ -9552,7 +10473,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9701,14 +10622,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="141" t="s">
+      <c r="A30" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -9729,277 +10650,277 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="138" t="s">
+      <c r="B34" s="163" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="138"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="138" t="s">
+      <c r="B36" s="163" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="138" t="s">
+      <c r="B40" s="163" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="138" t="s">
+      <c r="B42" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="138" t="s">
+      <c r="B44" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="138" t="s">
+      <c r="B46" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="138" t="s">
+      <c r="B48" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="138"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="138" t="s">
+      <c r="B50" s="163" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="138" t="s">
+      <c r="B52" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="138"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="138"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
+      <c r="B54" s="163"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="138"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="138"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="138"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="138"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="138"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="138"/>
+      <c r="B62" s="163"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="163"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="138"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="163"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="138"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="138"/>
+      <c r="B64" s="163"/>
+      <c r="C64" s="163"/>
+      <c r="D64" s="163"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -10029,17 +10950,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="138"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="138"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="163"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="138"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="138"/>
+      <c r="B68" s="163"/>
+      <c r="C68" s="163"/>
+      <c r="D68" s="163"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -10146,19 +11067,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="142"/>
-      <c r="C77" s="142"/>
-      <c r="D77" s="142"/>
+      <c r="B77" s="165"/>
+      <c r="C77" s="165"/>
+      <c r="D77" s="165"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="139" t="s">
+      <c r="B78" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="139"/>
-      <c r="D78" s="139"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -10166,9 +11087,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="142"/>
-      <c r="C79" s="142"/>
-      <c r="D79" s="142"/>
+      <c r="B79" s="165"/>
+      <c r="C79" s="165"/>
+      <c r="D79" s="165"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -10203,31 +11124,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="136"/>
-      <c r="C83" s="136"/>
-      <c r="D83" s="136"/>
-      <c r="E83" s="136"/>
+      <c r="B83" s="168"/>
+      <c r="C83" s="168"/>
+      <c r="D83" s="168"/>
+      <c r="E83" s="168"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="144" t="s">
+      <c r="A84" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="144"/>
-      <c r="C84" s="144"/>
-      <c r="D84" s="144"/>
-      <c r="E84" s="144"/>
-      <c r="F84" s="144"/>
+      <c r="B84" s="162"/>
+      <c r="C84" s="162"/>
+      <c r="D84" s="162"/>
+      <c r="E84" s="162"/>
+      <c r="F84" s="162"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="140" t="s">
+      <c r="A85" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="140"/>
-      <c r="C85" s="140"/>
-      <c r="D85" s="140"/>
-      <c r="E85" s="140"/>
-      <c r="F85" s="140"/>
+      <c r="B85" s="171"/>
+      <c r="C85" s="171"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="171"/>
+      <c r="F85" s="171"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -10239,26 +11160,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="137"/>
-      <c r="C87" s="137"/>
-      <c r="D87" s="137"/>
-      <c r="E87" s="137"/>
+      <c r="B87" s="169"/>
+      <c r="C87" s="169"/>
+      <c r="D87" s="169"/>
+      <c r="E87" s="169"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="143" t="s">
+      <c r="A88" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="143"/>
-      <c r="C88" s="143"/>
-      <c r="D88" s="143"/>
-      <c r="E88" s="143"/>
-      <c r="F88" s="143"/>
+      <c r="B88" s="161"/>
+      <c r="C88" s="161"/>
+      <c r="D88" s="161"/>
+      <c r="E88" s="161"/>
+      <c r="F88" s="161"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="134"/>
-      <c r="C90" s="135"/>
-      <c r="D90" s="135"/>
+      <c r="B90" s="166"/>
+      <c r="C90" s="167"/>
+      <c r="D90" s="167"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -10268,34 +11189,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B63:D63"/>
@@ -10312,6 +11205,34 @@
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B78:D78"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{D70F66AE-A1B8-43CC-BAF9-2D574FC727B1}">
@@ -10320,7 +11241,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -10469,14 +11390,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="141" t="s">
+      <c r="A30" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -10497,287 +11418,287 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="138" t="s">
+      <c r="B34" s="163" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="138"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="138" t="s">
+      <c r="B36" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="138" t="s">
+      <c r="B40" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="138" t="s">
+      <c r="B42" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="138" t="s">
+      <c r="B44" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="138" t="s">
+      <c r="B46" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="138"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="138"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="138"/>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="138"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="138"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="138"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
+      <c r="B54" s="163"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="138"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="138"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="138"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="138"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="138"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="138"/>
+      <c r="B62" s="163"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="163"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="138"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="163"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="138"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="138"/>
+      <c r="B64" s="163"/>
+      <c r="C64" s="163"/>
+      <c r="D64" s="163"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="138"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="138"/>
+      <c r="B65" s="163"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="163"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="138"/>
-      <c r="C66" s="138"/>
-      <c r="D66" s="138"/>
+      <c r="B66" s="163"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="163"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
@@ -10807,17 +11728,17 @@
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="138"/>
-      <c r="C69" s="138"/>
-      <c r="D69" s="138"/>
+      <c r="B69" s="163"/>
+      <c r="C69" s="163"/>
+      <c r="D69" s="163"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
     <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21"/>
-      <c r="B70" s="138"/>
-      <c r="C70" s="138"/>
-      <c r="D70" s="138"/>
+      <c r="B70" s="163"/>
+      <c r="C70" s="163"/>
+      <c r="D70" s="163"/>
       <c r="E70" s="28"/>
       <c r="F70" s="21"/>
     </row>
@@ -10924,19 +11845,19 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="142"/>
-      <c r="C79" s="142"/>
-      <c r="D79" s="142"/>
+      <c r="B79" s="165"/>
+      <c r="C79" s="165"/>
+      <c r="D79" s="165"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="139" t="s">
+      <c r="B80" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="139"/>
-      <c r="D80" s="139"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="170"/>
       <c r="E80" s="36">
         <v>0</v>
       </c>
@@ -10944,9 +11865,9 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
-      <c r="B81" s="142"/>
-      <c r="C81" s="142"/>
-      <c r="D81" s="142"/>
+      <c r="B81" s="165"/>
+      <c r="C81" s="165"/>
+      <c r="D81" s="165"/>
       <c r="E81" s="36"/>
       <c r="F81" s="21"/>
     </row>
@@ -10981,31 +11902,31 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
-      <c r="B85" s="136"/>
-      <c r="C85" s="136"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="136"/>
+      <c r="B85" s="168"/>
+      <c r="C85" s="168"/>
+      <c r="D85" s="168"/>
+      <c r="E85" s="168"/>
       <c r="F85" s="21"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="144" t="s">
+      <c r="A86" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="144"/>
-      <c r="C86" s="144"/>
-      <c r="D86" s="144"/>
-      <c r="E86" s="144"/>
-      <c r="F86" s="144"/>
+      <c r="B86" s="162"/>
+      <c r="C86" s="162"/>
+      <c r="D86" s="162"/>
+      <c r="E86" s="162"/>
+      <c r="F86" s="162"/>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="140" t="s">
+      <c r="A87" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="140"/>
-      <c r="C87" s="140"/>
-      <c r="D87" s="140"/>
-      <c r="E87" s="140"/>
-      <c r="F87" s="140"/>
+      <c r="B87" s="171"/>
+      <c r="C87" s="171"/>
+      <c r="D87" s="171"/>
+      <c r="E87" s="171"/>
+      <c r="F87" s="171"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
@@ -11017,26 +11938,26 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="21"/>
-      <c r="B89" s="137"/>
-      <c r="C89" s="137"/>
-      <c r="D89" s="137"/>
-      <c r="E89" s="137"/>
+      <c r="B89" s="169"/>
+      <c r="C89" s="169"/>
+      <c r="D89" s="169"/>
+      <c r="E89" s="169"/>
       <c r="F89" s="21"/>
     </row>
     <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="143" t="s">
+      <c r="A90" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="143"/>
-      <c r="C90" s="143"/>
-      <c r="D90" s="143"/>
-      <c r="E90" s="143"/>
-      <c r="F90" s="143"/>
+      <c r="B90" s="161"/>
+      <c r="C90" s="161"/>
+      <c r="D90" s="161"/>
+      <c r="E90" s="161"/>
+      <c r="F90" s="161"/>
     </row>
     <row r="92" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="134"/>
-      <c r="C92" s="135"/>
-      <c r="D92" s="135"/>
+      <c r="B92" s="166"/>
+      <c r="C92" s="167"/>
+      <c r="D92" s="167"/>
     </row>
     <row r="93" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -11046,36 +11967,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
     <mergeCell ref="A90:F90"/>
     <mergeCell ref="B92:D92"/>
     <mergeCell ref="B49:D49"/>
@@ -11092,6 +11983,36 @@
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79:B81 B12:B20 B33:B70" xr:uid="{C1A468C9-767C-466C-8AD0-E4ECF40D79B5}">
@@ -11100,7 +12021,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="62" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -11249,14 +12170,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="141" t="s">
+      <c r="A30" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -11277,297 +12198,297 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="138" t="s">
+      <c r="B34" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="138"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="138" t="s">
+      <c r="B36" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="163" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="138" t="s">
+      <c r="B40" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="138" t="s">
+      <c r="B42" s="163" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="138" t="s">
+      <c r="B44" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="138" t="s">
+      <c r="B46" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="138" t="s">
+      <c r="B48" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="138"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="138" t="s">
+      <c r="B50" s="163" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="138" t="s">
+      <c r="B52" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="138"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="138" t="s">
+      <c r="B54" s="163" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="138"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="138"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="138" t="s">
+      <c r="B56" s="163" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="138" t="s">
+      <c r="B58" s="163" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="138"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="138" t="s">
+      <c r="B60" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="138"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="138" t="s">
+      <c r="B62" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="138"/>
-      <c r="D62" s="138"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="163"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="138"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="163"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="138" t="s">
+      <c r="B64" s="163" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="138"/>
-      <c r="D64" s="138"/>
+      <c r="C64" s="163"/>
+      <c r="D64" s="163"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="138"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="138"/>
+      <c r="B65" s="163"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="163"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -11597,17 +12518,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="138"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="138"/>
+      <c r="B68" s="163"/>
+      <c r="C68" s="163"/>
+      <c r="D68" s="163"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="138"/>
-      <c r="C69" s="138"/>
-      <c r="D69" s="138"/>
+      <c r="B69" s="163"/>
+      <c r="C69" s="163"/>
+      <c r="D69" s="163"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
@@ -11714,19 +12635,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="142"/>
-      <c r="C78" s="142"/>
-      <c r="D78" s="142"/>
+      <c r="B78" s="165"/>
+      <c r="C78" s="165"/>
+      <c r="D78" s="165"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="139" t="s">
+      <c r="B79" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="139"/>
-      <c r="D79" s="139"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="170"/>
       <c r="E79" s="36">
         <v>0</v>
       </c>
@@ -11734,9 +12655,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="142"/>
-      <c r="C80" s="142"/>
-      <c r="D80" s="142"/>
+      <c r="B80" s="165"/>
+      <c r="C80" s="165"/>
+      <c r="D80" s="165"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
@@ -11771,31 +12692,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="136"/>
-      <c r="C84" s="136"/>
-      <c r="D84" s="136"/>
-      <c r="E84" s="136"/>
+      <c r="B84" s="168"/>
+      <c r="C84" s="168"/>
+      <c r="D84" s="168"/>
+      <c r="E84" s="168"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="144" t="s">
+      <c r="A85" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="144"/>
-      <c r="C85" s="144"/>
-      <c r="D85" s="144"/>
-      <c r="E85" s="144"/>
-      <c r="F85" s="144"/>
+      <c r="B85" s="162"/>
+      <c r="C85" s="162"/>
+      <c r="D85" s="162"/>
+      <c r="E85" s="162"/>
+      <c r="F85" s="162"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="140" t="s">
+      <c r="A86" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="140"/>
-      <c r="C86" s="140"/>
-      <c r="D86" s="140"/>
-      <c r="E86" s="140"/>
-      <c r="F86" s="140"/>
+      <c r="B86" s="171"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
+      <c r="F86" s="171"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -11807,26 +12728,26 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
-      <c r="B88" s="137"/>
-      <c r="C88" s="137"/>
-      <c r="D88" s="137"/>
-      <c r="E88" s="137"/>
+      <c r="B88" s="169"/>
+      <c r="C88" s="169"/>
+      <c r="D88" s="169"/>
+      <c r="E88" s="169"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="143" t="s">
+      <c r="A89" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="143"/>
-      <c r="C89" s="143"/>
-      <c r="D89" s="143"/>
-      <c r="E89" s="143"/>
-      <c r="F89" s="143"/>
+      <c r="B89" s="161"/>
+      <c r="C89" s="161"/>
+      <c r="D89" s="161"/>
+      <c r="E89" s="161"/>
+      <c r="F89" s="161"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="134"/>
-      <c r="C91" s="135"/>
-      <c r="D91" s="135"/>
+      <c r="B91" s="166"/>
+      <c r="C91" s="167"/>
+      <c r="D91" s="167"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -11836,6 +12757,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
     <mergeCell ref="A86:F86"/>
     <mergeCell ref="B88:E88"/>
     <mergeCell ref="A89:F89"/>
@@ -11852,35 +12802,6 @@
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:B80 B12:B20 B33:B69" xr:uid="{905403ED-E529-4222-BB17-4B0EE802376B}">
@@ -11889,7 +12810,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Factures_Excel/1663 - Multi-Plis.xlsx
+++ b/Factures_Excel/1663 - Multi-Plis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAF0609-9AB4-49BB-96EA-4C8819F86A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D798FE7-C159-4B07-A144-58D80414A385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22-12-22" sheetId="4" r:id="rId1"/>
@@ -26,9 +26,10 @@
     <sheet name="2024-09-06 - 24-24491" sheetId="14" r:id="rId11"/>
     <sheet name="2024-11-02 - 24-24602" sheetId="15" r:id="rId12"/>
     <sheet name="2025-03-01 - 25-24759" sheetId="16" r:id="rId13"/>
+    <sheet name="2025-03-31 - 25-24868" sheetId="17" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
@@ -50,6 +51,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'19-02-24'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'2024-11-02 - 24-24602'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'2025-03-01 - 25-24759'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'2025-03-31 - 25-24868'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'22-12-22'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'26-05-24'!$A$1:$F$91</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'28-03-24'!$A$1:$F$89</definedName>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="167">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -564,6 +566,18 @@
   </si>
   <si>
     <t xml:space="preserve"> - Travail avec votre comptable à la préparation/révision des états financiers et déclarations de revenus des différentes sociétés;</t>
+  </si>
+  <si>
+    <t>Le 31 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24868</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail avec votre comptable à la préparation/révision des états financiers et déclarations de revenus;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse et réflexions permettant de répondre aux diverses questions de vos comptables;</t>
   </si>
 </sst>
 </file>
@@ -912,7 +926,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -934,6 +948,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,7 +1162,7 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1530,39 +1550,39 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1602,6 +1622,9 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1611,8 +1634,8 @@
     <xf numFmtId="0" fontId="48" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1894,6 +1917,72 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E84AC7-58DF-B53C-57E3-024451655B8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13313" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D64E4B4-DE4F-9F65-2B47-593A9CB4EBDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3143,14 +3232,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3171,269 +3260,269 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="163"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="163" t="s">
+      <c r="B35" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="163"/>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="163" t="s">
+      <c r="B37" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="163"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="163" t="s">
+      <c r="B39" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="163"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="163" t="s">
+      <c r="B41" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="163"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="163" t="s">
+      <c r="B43" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="163"/>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="163" t="s">
+      <c r="B45" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="163"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="163"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="163"/>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="163"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="163"/>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="163"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="163"/>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="163"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="163"/>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="163"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="163"/>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="163"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="163"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="163"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="163"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="163"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="163"/>
-      <c r="C62" s="163"/>
-      <c r="D62" s="163"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="163"/>
-      <c r="C63" s="163"/>
-      <c r="D63" s="163"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="163"/>
-      <c r="C64" s="163"/>
-      <c r="D64" s="163"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3463,17 +3552,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="163"/>
-      <c r="C67" s="163"/>
-      <c r="D67" s="163"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="163"/>
-      <c r="C68" s="163"/>
-      <c r="D68" s="163"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="165"/>
+      <c r="D68" s="165"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3580,19 +3669,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="165"/>
-      <c r="C77" s="165"/>
-      <c r="D77" s="165"/>
+      <c r="B77" s="169"/>
+      <c r="C77" s="169"/>
+      <c r="D77" s="169"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="170" t="s">
+      <c r="B78" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="170"/>
-      <c r="D78" s="170"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="166"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3600,9 +3689,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="165"/>
-      <c r="C79" s="165"/>
-      <c r="D79" s="165"/>
+      <c r="B79" s="169"/>
+      <c r="C79" s="169"/>
+      <c r="D79" s="169"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3637,31 +3726,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="168"/>
-      <c r="C83" s="168"/>
-      <c r="D83" s="168"/>
-      <c r="E83" s="168"/>
+      <c r="B83" s="163"/>
+      <c r="C83" s="163"/>
+      <c r="D83" s="163"/>
+      <c r="E83" s="163"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="162" t="s">
+      <c r="A84" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="162"/>
-      <c r="C84" s="162"/>
-      <c r="D84" s="162"/>
-      <c r="E84" s="162"/>
-      <c r="F84" s="162"/>
+      <c r="B84" s="171"/>
+      <c r="C84" s="171"/>
+      <c r="D84" s="171"/>
+      <c r="E84" s="171"/>
+      <c r="F84" s="171"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="171" t="s">
+      <c r="A85" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="171"/>
-      <c r="C85" s="171"/>
-      <c r="D85" s="171"/>
-      <c r="E85" s="171"/>
-      <c r="F85" s="171"/>
+      <c r="B85" s="167"/>
+      <c r="C85" s="167"/>
+      <c r="D85" s="167"/>
+      <c r="E85" s="167"/>
+      <c r="F85" s="167"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3673,26 +3762,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="169"/>
-      <c r="C87" s="169"/>
-      <c r="D87" s="169"/>
-      <c r="E87" s="169"/>
+      <c r="B87" s="164"/>
+      <c r="C87" s="164"/>
+      <c r="D87" s="164"/>
+      <c r="E87" s="164"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="161" t="s">
+      <c r="A88" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="161"/>
-      <c r="C88" s="161"/>
-      <c r="D88" s="161"/>
-      <c r="E88" s="161"/>
-      <c r="F88" s="161"/>
+      <c r="B88" s="170"/>
+      <c r="C88" s="170"/>
+      <c r="D88" s="170"/>
+      <c r="E88" s="170"/>
+      <c r="F88" s="170"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="166"/>
-      <c r="C90" s="167"/>
-      <c r="D90" s="167"/>
+      <c r="B90" s="161"/>
+      <c r="C90" s="162"/>
+      <c r="D90" s="162"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3702,6 +3791,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -3718,34 +3835,6 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -4976,14 +5065,14 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="161" t="s">
+      <c r="A88" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="161"/>
-      <c r="C88" s="161"/>
-      <c r="D88" s="161"/>
-      <c r="E88" s="161"/>
-      <c r="F88" s="161"/>
+      <c r="B88" s="170"/>
+      <c r="C88" s="170"/>
+      <c r="D88" s="170"/>
+      <c r="E88" s="170"/>
+      <c r="F88" s="170"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>
@@ -5284,13 +5373,13 @@
       <c r="F29" s="136"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="185" t="s">
+      <c r="A30" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="185"/>
-      <c r="C30" s="185"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
       <c r="F30" s="137"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5747,10 +5836,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="186" t="s">
+      <c r="B81" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="187"/>
+      <c r="C81" s="188"/>
       <c r="D81" s="158"/>
       <c r="E81" s="159">
         <v>2414.48</v>
@@ -5810,14 +5899,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="188" t="s">
+      <c r="A88" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="188"/>
-      <c r="C88" s="188"/>
-      <c r="D88" s="188"/>
-      <c r="E88" s="188"/>
-      <c r="F88" s="188"/>
+      <c r="B88" s="185"/>
+      <c r="C88" s="185"/>
+      <c r="D88" s="185"/>
+      <c r="E88" s="185"/>
+      <c r="F88" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5837,6 +5926,841 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F8EA18-31D2-4C85-B3C3-25E9816B3FB1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="134"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="137"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="138"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="139"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="142" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="143"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="145"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="142" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="143"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="143"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="142" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="143"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="143"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="142" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="145"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="143"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="143"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="142"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="142"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="142"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="146"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="144"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="144"/>
+      <c r="F53" s="144"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="144"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="144"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="144"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="144"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="144"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="144"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="150"/>
+      <c r="D64" s="141"/>
+      <c r="E64" s="144"/>
+      <c r="F64" s="144"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="142"/>
+      <c r="C65" s="151" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="152" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="153">
+        <v>24</v>
+      </c>
+      <c r="D66" s="154">
+        <v>400</v>
+      </c>
+      <c r="E66" s="155"/>
+      <c r="F66" s="155"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="147"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="154"/>
+      <c r="E67" s="144"/>
+      <c r="F67" s="144"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="100"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="101">
+        <v>9600</v>
+      </c>
+      <c r="F69" s="101"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="104"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="105">
+        <v>0</v>
+      </c>
+      <c r="F70" s="105"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="157" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="104"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="105">
+        <v>0</v>
+      </c>
+      <c r="F71" s="105"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="104"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="105">
+        <v>0</v>
+      </c>
+      <c r="F72" s="105"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="100"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="107">
+        <v>9600</v>
+      </c>
+      <c r="F73" s="107"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="108">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="104"/>
+      <c r="E74" s="109">
+        <v>480</v>
+      </c>
+      <c r="F74" s="109"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="111">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="104"/>
+      <c r="E75" s="112">
+        <v>957.6</v>
+      </c>
+      <c r="F75" s="109"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="100"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="117">
+        <v>11037.6</v>
+      </c>
+      <c r="F77" s="118"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="110"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="110"/>
+      <c r="E78" s="119"/>
+      <c r="F78" s="110"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="110"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="110"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="119"/>
+      <c r="F80" s="110"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="187" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="188"/>
+      <c r="D81" s="158"/>
+      <c r="E81" s="159">
+        <v>11037.6</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="128"/>
+      <c r="B83" s="178"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
+      <c r="F83" s="160"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="181"/>
+      <c r="C84" s="181"/>
+      <c r="D84" s="181"/>
+      <c r="E84" s="181"/>
+      <c r="F84" s="113"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="183" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="183"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="130"/>
+      <c r="B86" s="130"/>
+      <c r="C86" s="130"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="130"/>
+      <c r="B87" s="130"/>
+      <c r="C87" s="130"/>
+      <c r="D87" s="130"/>
+      <c r="E87" s="130"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="185"/>
+      <c r="C88" s="185"/>
+      <c r="D88" s="185"/>
+      <c r="E88" s="185"/>
+      <c r="F88" s="185"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7339C410-1078-4FB1-9517-99120699D516}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5924,7 +6848,7 @@
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
+      <c r="D9" s="189"/>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
     </row>
@@ -6019,7 +6943,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
       <c r="B21" s="59" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
@@ -6046,7 +6970,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="62"/>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="59" t="s">
         <v>138</v>
       </c>
       <c r="C24" s="62"/>
@@ -6090,7 +7014,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F28" s="67"/>
     </row>
@@ -6103,13 +7027,13 @@
       <c r="F29" s="136"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="185" t="s">
+      <c r="A30" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="185"/>
-      <c r="C30" s="185"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
       <c r="F30" s="137"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6141,7 +7065,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="78"/>
       <c r="B34" s="142" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C34" s="143"/>
       <c r="D34" s="144"/>
@@ -6161,7 +7085,7 @@
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="78"/>
       <c r="B36" s="142" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C36" s="143"/>
       <c r="D36" s="144"/>
@@ -6170,9 +7094,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="78"/>
-      <c r="B37" s="142" t="s">
-        <v>160</v>
-      </c>
+      <c r="B37" s="142"/>
       <c r="C37" s="143"/>
       <c r="D37" s="144"/>
       <c r="E37" s="144"/>
@@ -6180,9 +7102,7 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="78"/>
-      <c r="B38" s="142" t="s">
-        <v>162</v>
-      </c>
+      <c r="B38" s="142"/>
       <c r="C38" s="143"/>
       <c r="D38" s="144"/>
       <c r="E38" s="144"/>
@@ -6190,9 +7110,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="78"/>
-      <c r="B39" s="142" t="s">
-        <v>160</v>
-      </c>
+      <c r="B39" s="142"/>
       <c r="C39" s="143"/>
       <c r="D39" s="144"/>
       <c r="E39" s="144"/>
@@ -6200,9 +7118,7 @@
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="78"/>
-      <c r="B40" s="142" t="s">
-        <v>39</v>
-      </c>
+      <c r="B40" s="142"/>
       <c r="C40" s="145"/>
       <c r="D40" s="144"/>
       <c r="E40" s="144"/>
@@ -6210,9 +7126,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="78"/>
-      <c r="B41" s="142" t="s">
-        <v>160</v>
-      </c>
+      <c r="B41" s="142"/>
       <c r="C41" s="143"/>
       <c r="D41" s="144"/>
       <c r="E41" s="144"/>
@@ -6220,9 +7134,7 @@
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
-      <c r="B42" s="142" t="s">
-        <v>74</v>
-      </c>
+      <c r="B42" s="142"/>
       <c r="C42" s="143"/>
       <c r="D42" s="144"/>
       <c r="E42" s="144"/>
@@ -6420,10 +7332,10 @@
       <c r="A66" s="78"/>
       <c r="B66" s="142"/>
       <c r="C66" s="153">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D66" s="154">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E66" s="155"/>
       <c r="F66" s="155"/>
@@ -6452,7 +7364,7 @@
       <c r="C69" s="100"/>
       <c r="D69" s="60"/>
       <c r="E69" s="101">
-        <v>9600</v>
+        <v>2310</v>
       </c>
       <c r="F69" s="101"/>
     </row>
@@ -6500,7 +7412,7 @@
       <c r="C73" s="100"/>
       <c r="D73" s="60"/>
       <c r="E73" s="107">
-        <v>9600</v>
+        <v>2310</v>
       </c>
       <c r="F73" s="107"/>
     </row>
@@ -6514,7 +7426,7 @@
       </c>
       <c r="D74" s="104"/>
       <c r="E74" s="109">
-        <v>480</v>
+        <v>115.5</v>
       </c>
       <c r="F74" s="109"/>
     </row>
@@ -6528,7 +7440,7 @@
       </c>
       <c r="D75" s="104"/>
       <c r="E75" s="112">
-        <v>957.6</v>
+        <v>230.42</v>
       </c>
       <c r="F75" s="109"/>
     </row>
@@ -6548,7 +7460,7 @@
       <c r="C77" s="100"/>
       <c r="D77" s="116"/>
       <c r="E77" s="117">
-        <v>11037.6</v>
+        <v>2655.92</v>
       </c>
       <c r="F77" s="118"/>
     </row>
@@ -6582,13 +7494,13 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="186" t="s">
+      <c r="B81" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="187"/>
+      <c r="C81" s="188"/>
       <c r="D81" s="158"/>
       <c r="E81" s="159">
-        <v>11037.6</v>
+        <v>2655.92</v>
       </c>
       <c r="F81" s="61"/>
     </row>
@@ -6645,14 +7557,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="188" t="s">
+      <c r="A88" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="188"/>
-      <c r="C88" s="188"/>
-      <c r="D88" s="188"/>
-      <c r="E88" s="188"/>
-      <c r="F88" s="188"/>
+      <c r="B88" s="185"/>
+      <c r="C88" s="185"/>
+      <c r="D88" s="185"/>
+      <c r="E88" s="185"/>
+      <c r="F88" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6813,14 +7725,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -6841,275 +7753,275 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="163" t="s">
+      <c r="B36" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="163" t="s">
+      <c r="B42" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="163" t="s">
+      <c r="B44" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="163"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="163" t="s">
+      <c r="B48" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="163"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="163" t="s">
+      <c r="B50" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="163"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="163" t="s">
+      <c r="B52" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="163" t="s">
+      <c r="B54" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="163" t="s">
+      <c r="B56" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="163"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="163" t="s">
+      <c r="B58" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="163"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="163"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="163"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="163"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="163"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="163"/>
-      <c r="C62" s="163"/>
-      <c r="D62" s="163"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="163"/>
-      <c r="C63" s="163"/>
-      <c r="D63" s="163"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -7139,17 +8051,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="163"/>
-      <c r="C66" s="163"/>
-      <c r="D66" s="163"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="163"/>
-      <c r="C67" s="163"/>
-      <c r="D67" s="163"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -7256,19 +8168,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="165"/>
-      <c r="C76" s="165"/>
-      <c r="D76" s="165"/>
+      <c r="B76" s="169"/>
+      <c r="C76" s="169"/>
+      <c r="D76" s="169"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="170" t="s">
+      <c r="B77" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="170"/>
-      <c r="D77" s="170"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="166"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -7276,9 +8188,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="165"/>
-      <c r="C78" s="165"/>
-      <c r="D78" s="165"/>
+      <c r="B78" s="169"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -7313,31 +8225,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="168"/>
-      <c r="C82" s="168"/>
-      <c r="D82" s="168"/>
-      <c r="E82" s="168"/>
+      <c r="B82" s="163"/>
+      <c r="C82" s="163"/>
+      <c r="D82" s="163"/>
+      <c r="E82" s="163"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="162" t="s">
+      <c r="A83" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="162"/>
-      <c r="C83" s="162"/>
-      <c r="D83" s="162"/>
-      <c r="E83" s="162"/>
-      <c r="F83" s="162"/>
+      <c r="B83" s="171"/>
+      <c r="C83" s="171"/>
+      <c r="D83" s="171"/>
+      <c r="E83" s="171"/>
+      <c r="F83" s="171"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="171" t="s">
+      <c r="A84" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="171"/>
-      <c r="C84" s="171"/>
-      <c r="D84" s="171"/>
-      <c r="E84" s="171"/>
-      <c r="F84" s="171"/>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
+      <c r="F84" s="167"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -7349,26 +8261,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="169"/>
-      <c r="C86" s="169"/>
-      <c r="D86" s="169"/>
-      <c r="E86" s="169"/>
+      <c r="B86" s="164"/>
+      <c r="C86" s="164"/>
+      <c r="D86" s="164"/>
+      <c r="E86" s="164"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="161" t="s">
+      <c r="A87" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="161"/>
-      <c r="C87" s="161"/>
-      <c r="D87" s="161"/>
-      <c r="E87" s="161"/>
-      <c r="F87" s="161"/>
+      <c r="B87" s="170"/>
+      <c r="C87" s="170"/>
+      <c r="D87" s="170"/>
+      <c r="E87" s="170"/>
+      <c r="F87" s="170"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="166"/>
-      <c r="C89" s="167"/>
-      <c r="D89" s="167"/>
+      <c r="B89" s="161"/>
+      <c r="C89" s="162"/>
+      <c r="D89" s="162"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -7378,14 +8290,29 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
@@ -7398,29 +8325,14 @@
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{2D9A563E-17E9-4439-9B4B-21E936A45F74}">
@@ -7578,14 +8490,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -7606,277 +8518,277 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="163" t="s">
+      <c r="B36" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="163" t="s">
+      <c r="B42" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="163" t="s">
+      <c r="B44" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="163"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="163" t="s">
+      <c r="B48" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="163"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="163" t="s">
+      <c r="B50" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="163"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="163" t="s">
+      <c r="B52" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="163" t="s">
+      <c r="B54" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="163" t="s">
+      <c r="B56" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="163"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="163" t="s">
+      <c r="B58" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="163"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="163" t="s">
+      <c r="B60" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="163"/>
-      <c r="D60" s="163"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="163"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="163"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="163"/>
-      <c r="C62" s="163"/>
-      <c r="D62" s="163"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="163"/>
-      <c r="C63" s="163"/>
-      <c r="D63" s="163"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -7906,17 +8818,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="163"/>
-      <c r="C66" s="163"/>
-      <c r="D66" s="163"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="163"/>
-      <c r="C67" s="163"/>
-      <c r="D67" s="163"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -8023,19 +8935,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="165"/>
-      <c r="C76" s="165"/>
-      <c r="D76" s="165"/>
+      <c r="B76" s="169"/>
+      <c r="C76" s="169"/>
+      <c r="D76" s="169"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="170" t="s">
+      <c r="B77" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="170"/>
-      <c r="D77" s="170"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="166"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -8043,9 +8955,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="165"/>
-      <c r="C78" s="165"/>
-      <c r="D78" s="165"/>
+      <c r="B78" s="169"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -8080,31 +8992,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="168"/>
-      <c r="C82" s="168"/>
-      <c r="D82" s="168"/>
-      <c r="E82" s="168"/>
+      <c r="B82" s="163"/>
+      <c r="C82" s="163"/>
+      <c r="D82" s="163"/>
+      <c r="E82" s="163"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="162" t="s">
+      <c r="A83" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="162"/>
-      <c r="C83" s="162"/>
-      <c r="D83" s="162"/>
-      <c r="E83" s="162"/>
-      <c r="F83" s="162"/>
+      <c r="B83" s="171"/>
+      <c r="C83" s="171"/>
+      <c r="D83" s="171"/>
+      <c r="E83" s="171"/>
+      <c r="F83" s="171"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="171" t="s">
+      <c r="A84" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="171"/>
-      <c r="C84" s="171"/>
-      <c r="D84" s="171"/>
-      <c r="E84" s="171"/>
-      <c r="F84" s="171"/>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
+      <c r="F84" s="167"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -8116,26 +9028,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="169"/>
-      <c r="C86" s="169"/>
-      <c r="D86" s="169"/>
-      <c r="E86" s="169"/>
+      <c r="B86" s="164"/>
+      <c r="C86" s="164"/>
+      <c r="D86" s="164"/>
+      <c r="E86" s="164"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="161" t="s">
+      <c r="A87" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="161"/>
-      <c r="C87" s="161"/>
-      <c r="D87" s="161"/>
-      <c r="E87" s="161"/>
-      <c r="F87" s="161"/>
+      <c r="B87" s="170"/>
+      <c r="C87" s="170"/>
+      <c r="D87" s="170"/>
+      <c r="E87" s="170"/>
+      <c r="F87" s="170"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="166"/>
-      <c r="C89" s="167"/>
-      <c r="D89" s="167"/>
+      <c r="B89" s="161"/>
+      <c r="C89" s="162"/>
+      <c r="D89" s="162"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -8145,35 +9057,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B78:D78"/>
@@ -8188,6 +9071,35 @@
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{6447EC37-8CD5-4033-9C4B-3B80CEEA6430}">
@@ -8345,14 +9257,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -8373,277 +9285,277 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="163" t="s">
+      <c r="B36" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="163" t="s">
+      <c r="B42" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="163" t="s">
+      <c r="B44" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="163"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="163" t="s">
+      <c r="B48" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="163"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="163" t="s">
+      <c r="B50" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="163"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="163" t="s">
+      <c r="B52" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="163" t="s">
+      <c r="B54" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="163" t="s">
+      <c r="B56" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="163"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="163" t="s">
+      <c r="B58" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="163"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="163" t="s">
+      <c r="B60" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="163"/>
-      <c r="D60" s="163"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="163"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="163"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="163"/>
-      <c r="C62" s="163"/>
-      <c r="D62" s="163"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="163"/>
-      <c r="C63" s="163"/>
-      <c r="D63" s="163"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -8673,17 +9585,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="163"/>
-      <c r="C66" s="163"/>
-      <c r="D66" s="163"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="163"/>
-      <c r="C67" s="163"/>
-      <c r="D67" s="163"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -8790,19 +9702,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="165"/>
-      <c r="C76" s="165"/>
-      <c r="D76" s="165"/>
+      <c r="B76" s="169"/>
+      <c r="C76" s="169"/>
+      <c r="D76" s="169"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="170" t="s">
+      <c r="B77" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="170"/>
-      <c r="D77" s="170"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="166"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -8810,9 +9722,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="165"/>
-      <c r="C78" s="165"/>
-      <c r="D78" s="165"/>
+      <c r="B78" s="169"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -8847,31 +9759,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="168"/>
-      <c r="C82" s="168"/>
-      <c r="D82" s="168"/>
-      <c r="E82" s="168"/>
+      <c r="B82" s="163"/>
+      <c r="C82" s="163"/>
+      <c r="D82" s="163"/>
+      <c r="E82" s="163"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="162" t="s">
+      <c r="A83" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="162"/>
-      <c r="C83" s="162"/>
-      <c r="D83" s="162"/>
-      <c r="E83" s="162"/>
-      <c r="F83" s="162"/>
+      <c r="B83" s="171"/>
+      <c r="C83" s="171"/>
+      <c r="D83" s="171"/>
+      <c r="E83" s="171"/>
+      <c r="F83" s="171"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="171" t="s">
+      <c r="A84" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="171"/>
-      <c r="C84" s="171"/>
-      <c r="D84" s="171"/>
-      <c r="E84" s="171"/>
-      <c r="F84" s="171"/>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
+      <c r="F84" s="167"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -8883,26 +9795,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="169"/>
-      <c r="C86" s="169"/>
-      <c r="D86" s="169"/>
-      <c r="E86" s="169"/>
+      <c r="B86" s="164"/>
+      <c r="C86" s="164"/>
+      <c r="D86" s="164"/>
+      <c r="E86" s="164"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="161" t="s">
+      <c r="A87" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="161"/>
-      <c r="C87" s="161"/>
-      <c r="D87" s="161"/>
-      <c r="E87" s="161"/>
-      <c r="F87" s="161"/>
+      <c r="B87" s="170"/>
+      <c r="C87" s="170"/>
+      <c r="D87" s="170"/>
+      <c r="E87" s="170"/>
+      <c r="F87" s="170"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="166"/>
-      <c r="C89" s="167"/>
-      <c r="D89" s="167"/>
+      <c r="B89" s="161"/>
+      <c r="C89" s="162"/>
+      <c r="D89" s="162"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -8912,13 +9824,30 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
@@ -8931,30 +9860,13 @@
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{F72F2B1D-2364-4F39-8EA3-2E5783030665}">
@@ -9112,14 +10024,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -9140,253 +10052,253 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="165" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="163" t="s">
+      <c r="B36" s="165" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="163" t="s">
+      <c r="B42" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="163" t="s">
+      <c r="B44" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="163"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="163" t="s">
+      <c r="B48" s="165" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="163"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="163" t="s">
+      <c r="B50" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="163"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="163" t="s">
+      <c r="B52" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="163"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="163"/>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="163"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="163"/>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="163"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="163"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="163"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="163"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="163"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
@@ -9416,17 +10328,17 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="163"/>
-      <c r="C64" s="163"/>
-      <c r="D64" s="163"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="163"/>
-      <c r="C65" s="163"/>
-      <c r="D65" s="163"/>
+      <c r="B65" s="165"/>
+      <c r="C65" s="165"/>
+      <c r="D65" s="165"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -9533,19 +10445,19 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21"/>
-      <c r="B74" s="165"/>
-      <c r="C74" s="165"/>
-      <c r="D74" s="165"/>
+      <c r="B74" s="169"/>
+      <c r="C74" s="169"/>
+      <c r="D74" s="169"/>
       <c r="E74" s="36"/>
       <c r="F74" s="21"/>
     </row>
     <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="21"/>
-      <c r="B75" s="170" t="s">
+      <c r="B75" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="170"/>
-      <c r="D75" s="170"/>
+      <c r="C75" s="166"/>
+      <c r="D75" s="166"/>
       <c r="E75" s="36">
         <v>0</v>
       </c>
@@ -9553,9 +10465,9 @@
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="165"/>
-      <c r="C76" s="165"/>
-      <c r="D76" s="165"/>
+      <c r="B76" s="169"/>
+      <c r="C76" s="169"/>
+      <c r="D76" s="169"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
@@ -9590,31 +10502,31 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="168"/>
-      <c r="C80" s="168"/>
-      <c r="D80" s="168"/>
-      <c r="E80" s="168"/>
+      <c r="B80" s="163"/>
+      <c r="C80" s="163"/>
+      <c r="D80" s="163"/>
+      <c r="E80" s="163"/>
       <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="162" t="s">
+      <c r="A81" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="162"/>
-      <c r="C81" s="162"/>
-      <c r="D81" s="162"/>
-      <c r="E81" s="162"/>
-      <c r="F81" s="162"/>
+      <c r="B81" s="171"/>
+      <c r="C81" s="171"/>
+      <c r="D81" s="171"/>
+      <c r="E81" s="171"/>
+      <c r="F81" s="171"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="171" t="s">
+      <c r="A82" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B82" s="171"/>
-      <c r="C82" s="171"/>
-      <c r="D82" s="171"/>
-      <c r="E82" s="171"/>
-      <c r="F82" s="171"/>
+      <c r="B82" s="167"/>
+      <c r="C82" s="167"/>
+      <c r="D82" s="167"/>
+      <c r="E82" s="167"/>
+      <c r="F82" s="167"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
@@ -9626,26 +10538,26 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="169"/>
-      <c r="C84" s="169"/>
-      <c r="D84" s="169"/>
-      <c r="E84" s="169"/>
+      <c r="B84" s="164"/>
+      <c r="C84" s="164"/>
+      <c r="D84" s="164"/>
+      <c r="E84" s="164"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="161" t="s">
+      <c r="A85" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="161"/>
-      <c r="C85" s="161"/>
-      <c r="D85" s="161"/>
-      <c r="E85" s="161"/>
-      <c r="F85" s="161"/>
+      <c r="B85" s="170"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="170"/>
+      <c r="E85" s="170"/>
+      <c r="F85" s="170"/>
     </row>
     <row r="87" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="166"/>
-      <c r="C87" s="167"/>
-      <c r="D87" s="167"/>
+      <c r="B87" s="161"/>
+      <c r="C87" s="162"/>
+      <c r="D87" s="162"/>
     </row>
     <row r="88" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -9655,6 +10567,35 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
@@ -9667,35 +10608,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:F85"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:B76 B12:B20 B33:B65" xr:uid="{2691E24E-F965-4BA1-8053-4BEF7731BFED}">
@@ -9853,14 +10765,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -9881,279 +10793,279 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="163"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="163" t="s">
+      <c r="B35" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="163"/>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="163" t="s">
+      <c r="B37" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="163"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="163" t="s">
+      <c r="B39" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="163"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="163" t="s">
+      <c r="B41" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="163"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="163" t="s">
+      <c r="B43" s="165" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="163"/>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="163" t="s">
+      <c r="B45" s="165" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="163"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="163" t="s">
+      <c r="B47" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="163"/>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="163" t="s">
+      <c r="B49" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="163"/>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="163" t="s">
+      <c r="B51" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="163"/>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="163" t="s">
+      <c r="B53" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="163"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="163" t="s">
+      <c r="B55" s="165" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="163"/>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="163" t="s">
+      <c r="B57" s="165" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="163"/>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="163" t="s">
+      <c r="B59" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="163"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="163"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="163" t="s">
+      <c r="B61" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="163"/>
-      <c r="D61" s="163"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="163"/>
-      <c r="C62" s="163"/>
-      <c r="D62" s="163"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="163" t="s">
+      <c r="B63" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="163"/>
-      <c r="D63" s="163"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -10183,17 +11095,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="163"/>
-      <c r="C66" s="163"/>
-      <c r="D66" s="163"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="163"/>
-      <c r="C67" s="163"/>
-      <c r="D67" s="163"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -10300,19 +11212,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="165"/>
-      <c r="C76" s="165"/>
-      <c r="D76" s="165"/>
+      <c r="B76" s="169"/>
+      <c r="C76" s="169"/>
+      <c r="D76" s="169"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="170" t="s">
+      <c r="B77" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="170"/>
-      <c r="D77" s="170"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="166"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -10320,9 +11232,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="165"/>
-      <c r="C78" s="165"/>
-      <c r="D78" s="165"/>
+      <c r="B78" s="169"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -10357,31 +11269,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="168"/>
-      <c r="C82" s="168"/>
-      <c r="D82" s="168"/>
-      <c r="E82" s="168"/>
+      <c r="B82" s="163"/>
+      <c r="C82" s="163"/>
+      <c r="D82" s="163"/>
+      <c r="E82" s="163"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="162" t="s">
+      <c r="A83" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="162"/>
-      <c r="C83" s="162"/>
-      <c r="D83" s="162"/>
-      <c r="E83" s="162"/>
-      <c r="F83" s="162"/>
+      <c r="B83" s="171"/>
+      <c r="C83" s="171"/>
+      <c r="D83" s="171"/>
+      <c r="E83" s="171"/>
+      <c r="F83" s="171"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="171" t="s">
+      <c r="A84" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="171"/>
-      <c r="C84" s="171"/>
-      <c r="D84" s="171"/>
-      <c r="E84" s="171"/>
-      <c r="F84" s="171"/>
+      <c r="B84" s="167"/>
+      <c r="C84" s="167"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
+      <c r="F84" s="167"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -10393,26 +11305,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="169"/>
-      <c r="C86" s="169"/>
-      <c r="D86" s="169"/>
-      <c r="E86" s="169"/>
+      <c r="B86" s="164"/>
+      <c r="C86" s="164"/>
+      <c r="D86" s="164"/>
+      <c r="E86" s="164"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="161" t="s">
+      <c r="A87" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="161"/>
-      <c r="C87" s="161"/>
-      <c r="D87" s="161"/>
-      <c r="E87" s="161"/>
-      <c r="F87" s="161"/>
+      <c r="B87" s="170"/>
+      <c r="C87" s="170"/>
+      <c r="D87" s="170"/>
+      <c r="E87" s="170"/>
+      <c r="F87" s="170"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="166"/>
-      <c r="C89" s="167"/>
-      <c r="D89" s="167"/>
+      <c r="B89" s="161"/>
+      <c r="C89" s="162"/>
+      <c r="D89" s="162"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -10422,35 +11334,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B76:D76"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
@@ -10465,6 +11348,35 @@
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{C3AF6657-7FA5-4CC7-9BF9-B43291DF59DB}">
@@ -10622,14 +11534,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -10650,277 +11562,277 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="163" t="s">
+      <c r="B36" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="163" t="s">
+      <c r="B42" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="163" t="s">
+      <c r="B44" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="163"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="163" t="s">
+      <c r="B48" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="163"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="163" t="s">
+      <c r="B50" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="163"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="163" t="s">
+      <c r="B52" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="163"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="163"/>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="163"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="163"/>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="163"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="163"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="163"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="163"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="163"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="163"/>
-      <c r="C62" s="163"/>
-      <c r="D62" s="163"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="163"/>
-      <c r="C63" s="163"/>
-      <c r="D63" s="163"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="163"/>
-      <c r="C64" s="163"/>
-      <c r="D64" s="163"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -10950,17 +11862,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="163"/>
-      <c r="C67" s="163"/>
-      <c r="D67" s="163"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="163"/>
-      <c r="C68" s="163"/>
-      <c r="D68" s="163"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="165"/>
+      <c r="D68" s="165"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -11067,19 +11979,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="165"/>
-      <c r="C77" s="165"/>
-      <c r="D77" s="165"/>
+      <c r="B77" s="169"/>
+      <c r="C77" s="169"/>
+      <c r="D77" s="169"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="170" t="s">
+      <c r="B78" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="170"/>
-      <c r="D78" s="170"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="166"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -11087,9 +11999,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="165"/>
-      <c r="C79" s="165"/>
-      <c r="D79" s="165"/>
+      <c r="B79" s="169"/>
+      <c r="C79" s="169"/>
+      <c r="D79" s="169"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -11124,31 +12036,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="168"/>
-      <c r="C83" s="168"/>
-      <c r="D83" s="168"/>
-      <c r="E83" s="168"/>
+      <c r="B83" s="163"/>
+      <c r="C83" s="163"/>
+      <c r="D83" s="163"/>
+      <c r="E83" s="163"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="162" t="s">
+      <c r="A84" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="162"/>
-      <c r="C84" s="162"/>
-      <c r="D84" s="162"/>
-      <c r="E84" s="162"/>
-      <c r="F84" s="162"/>
+      <c r="B84" s="171"/>
+      <c r="C84" s="171"/>
+      <c r="D84" s="171"/>
+      <c r="E84" s="171"/>
+      <c r="F84" s="171"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="171" t="s">
+      <c r="A85" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="171"/>
-      <c r="C85" s="171"/>
-      <c r="D85" s="171"/>
-      <c r="E85" s="171"/>
-      <c r="F85" s="171"/>
+      <c r="B85" s="167"/>
+      <c r="C85" s="167"/>
+      <c r="D85" s="167"/>
+      <c r="E85" s="167"/>
+      <c r="F85" s="167"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -11160,26 +12072,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="169"/>
-      <c r="C87" s="169"/>
-      <c r="D87" s="169"/>
-      <c r="E87" s="169"/>
+      <c r="B87" s="164"/>
+      <c r="C87" s="164"/>
+      <c r="D87" s="164"/>
+      <c r="E87" s="164"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="161" t="s">
+      <c r="A88" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="161"/>
-      <c r="C88" s="161"/>
-      <c r="D88" s="161"/>
-      <c r="E88" s="161"/>
-      <c r="F88" s="161"/>
+      <c r="B88" s="170"/>
+      <c r="C88" s="170"/>
+      <c r="D88" s="170"/>
+      <c r="E88" s="170"/>
+      <c r="F88" s="170"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="166"/>
-      <c r="C90" s="167"/>
-      <c r="D90" s="167"/>
+      <c r="B90" s="161"/>
+      <c r="C90" s="162"/>
+      <c r="D90" s="162"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -11189,6 +12101,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B63:D63"/>
@@ -11205,34 +12145,6 @@
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B78:D78"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{D70F66AE-A1B8-43CC-BAF9-2D574FC727B1}">
@@ -11390,14 +12302,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -11418,287 +12330,287 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="165" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="163" t="s">
+      <c r="B36" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="165" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="165" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="163" t="s">
+      <c r="B42" s="165" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="163" t="s">
+      <c r="B44" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="163"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="163"/>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="163"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="163"/>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="163"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="163"/>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="163"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="163"/>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="163"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="163"/>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="163"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="163"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="163"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="163"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="163"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="163"/>
-      <c r="C62" s="163"/>
-      <c r="D62" s="163"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="163"/>
-      <c r="C63" s="163"/>
-      <c r="D63" s="163"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="163"/>
-      <c r="C64" s="163"/>
-      <c r="D64" s="163"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="163"/>
-      <c r="C65" s="163"/>
-      <c r="D65" s="163"/>
+      <c r="B65" s="165"/>
+      <c r="C65" s="165"/>
+      <c r="D65" s="165"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="163"/>
-      <c r="C66" s="163"/>
-      <c r="D66" s="163"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
@@ -11728,17 +12640,17 @@
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="163"/>
-      <c r="C69" s="163"/>
-      <c r="D69" s="163"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="165"/>
+      <c r="D69" s="165"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
     <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21"/>
-      <c r="B70" s="163"/>
-      <c r="C70" s="163"/>
-      <c r="D70" s="163"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="165"/>
+      <c r="D70" s="165"/>
       <c r="E70" s="28"/>
       <c r="F70" s="21"/>
     </row>
@@ -11845,19 +12757,19 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="165"/>
-      <c r="C79" s="165"/>
-      <c r="D79" s="165"/>
+      <c r="B79" s="169"/>
+      <c r="C79" s="169"/>
+      <c r="D79" s="169"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="170" t="s">
+      <c r="B80" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="170"/>
-      <c r="D80" s="170"/>
+      <c r="C80" s="166"/>
+      <c r="D80" s="166"/>
       <c r="E80" s="36">
         <v>0</v>
       </c>
@@ -11865,9 +12777,9 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
-      <c r="B81" s="165"/>
-      <c r="C81" s="165"/>
-      <c r="D81" s="165"/>
+      <c r="B81" s="169"/>
+      <c r="C81" s="169"/>
+      <c r="D81" s="169"/>
       <c r="E81" s="36"/>
       <c r="F81" s="21"/>
     </row>
@@ -11902,31 +12814,31 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
-      <c r="B85" s="168"/>
-      <c r="C85" s="168"/>
-      <c r="D85" s="168"/>
-      <c r="E85" s="168"/>
+      <c r="B85" s="163"/>
+      <c r="C85" s="163"/>
+      <c r="D85" s="163"/>
+      <c r="E85" s="163"/>
       <c r="F85" s="21"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="162" t="s">
+      <c r="A86" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="162"/>
-      <c r="C86" s="162"/>
-      <c r="D86" s="162"/>
-      <c r="E86" s="162"/>
-      <c r="F86" s="162"/>
+      <c r="B86" s="171"/>
+      <c r="C86" s="171"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="171"/>
+      <c r="F86" s="171"/>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="171" t="s">
+      <c r="A87" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="171"/>
-      <c r="C87" s="171"/>
-      <c r="D87" s="171"/>
-      <c r="E87" s="171"/>
-      <c r="F87" s="171"/>
+      <c r="B87" s="167"/>
+      <c r="C87" s="167"/>
+      <c r="D87" s="167"/>
+      <c r="E87" s="167"/>
+      <c r="F87" s="167"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
@@ -11938,26 +12850,26 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="21"/>
-      <c r="B89" s="169"/>
-      <c r="C89" s="169"/>
-      <c r="D89" s="169"/>
-      <c r="E89" s="169"/>
+      <c r="B89" s="164"/>
+      <c r="C89" s="164"/>
+      <c r="D89" s="164"/>
+      <c r="E89" s="164"/>
       <c r="F89" s="21"/>
     </row>
     <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="161" t="s">
+      <c r="A90" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="161"/>
-      <c r="C90" s="161"/>
-      <c r="D90" s="161"/>
-      <c r="E90" s="161"/>
-      <c r="F90" s="161"/>
+      <c r="B90" s="170"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="170"/>
+      <c r="E90" s="170"/>
+      <c r="F90" s="170"/>
     </row>
     <row r="92" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="166"/>
-      <c r="C92" s="167"/>
-      <c r="D92" s="167"/>
+      <c r="B92" s="161"/>
+      <c r="C92" s="162"/>
+      <c r="D92" s="162"/>
     </row>
     <row r="93" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -11967,6 +12879,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
     <mergeCell ref="A90:F90"/>
     <mergeCell ref="B92:D92"/>
     <mergeCell ref="B49:D49"/>
@@ -11983,36 +12925,6 @@
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79:B81 B12:B20 B33:B70" xr:uid="{C1A468C9-767C-466C-8AD0-E4ECF40D79B5}">
@@ -12170,14 +13082,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -12198,297 +13110,297 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="165" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="163" t="s">
+      <c r="B36" s="165" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="165" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="165" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="163" t="s">
+      <c r="B42" s="165" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="163" t="s">
+      <c r="B44" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="163"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="163" t="s">
+      <c r="B48" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="163"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="163" t="s">
+      <c r="B50" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="163"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="163" t="s">
+      <c r="B52" s="165" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="163" t="s">
+      <c r="B54" s="165" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="163" t="s">
+      <c r="B56" s="165" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="163"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="163" t="s">
+      <c r="B58" s="165" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="163"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="163" t="s">
+      <c r="B60" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="163"/>
-      <c r="D60" s="163"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="163"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="163"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="163" t="s">
+      <c r="B62" s="165" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="163"/>
-      <c r="D62" s="163"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="163"/>
-      <c r="C63" s="163"/>
-      <c r="D63" s="163"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="163" t="s">
+      <c r="B64" s="165" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="163"/>
-      <c r="D64" s="163"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="163"/>
-      <c r="C65" s="163"/>
-      <c r="D65" s="163"/>
+      <c r="B65" s="165"/>
+      <c r="C65" s="165"/>
+      <c r="D65" s="165"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -12518,17 +13430,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="163"/>
-      <c r="C68" s="163"/>
-      <c r="D68" s="163"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="165"/>
+      <c r="D68" s="165"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="163"/>
-      <c r="C69" s="163"/>
-      <c r="D69" s="163"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="165"/>
+      <c r="D69" s="165"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
@@ -12635,19 +13547,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="165"/>
-      <c r="C78" s="165"/>
-      <c r="D78" s="165"/>
+      <c r="B78" s="169"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="169"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="170" t="s">
+      <c r="B79" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
+      <c r="C79" s="166"/>
+      <c r="D79" s="166"/>
       <c r="E79" s="36">
         <v>0</v>
       </c>
@@ -12655,9 +13567,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="165"/>
-      <c r="C80" s="165"/>
-      <c r="D80" s="165"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="169"/>
+      <c r="D80" s="169"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
@@ -12692,31 +13604,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="168"/>
-      <c r="C84" s="168"/>
-      <c r="D84" s="168"/>
-      <c r="E84" s="168"/>
+      <c r="B84" s="163"/>
+      <c r="C84" s="163"/>
+      <c r="D84" s="163"/>
+      <c r="E84" s="163"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="162" t="s">
+      <c r="A85" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="162"/>
-      <c r="C85" s="162"/>
-      <c r="D85" s="162"/>
-      <c r="E85" s="162"/>
-      <c r="F85" s="162"/>
+      <c r="B85" s="171"/>
+      <c r="C85" s="171"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="171"/>
+      <c r="F85" s="171"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="171" t="s">
+      <c r="A86" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="171"/>
-      <c r="C86" s="171"/>
-      <c r="D86" s="171"/>
-      <c r="E86" s="171"/>
-      <c r="F86" s="171"/>
+      <c r="B86" s="167"/>
+      <c r="C86" s="167"/>
+      <c r="D86" s="167"/>
+      <c r="E86" s="167"/>
+      <c r="F86" s="167"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -12728,26 +13640,26 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
-      <c r="B88" s="169"/>
-      <c r="C88" s="169"/>
-      <c r="D88" s="169"/>
-      <c r="E88" s="169"/>
+      <c r="B88" s="164"/>
+      <c r="C88" s="164"/>
+      <c r="D88" s="164"/>
+      <c r="E88" s="164"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="161" t="s">
+      <c r="A89" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="161"/>
-      <c r="C89" s="161"/>
-      <c r="D89" s="161"/>
-      <c r="E89" s="161"/>
-      <c r="F89" s="161"/>
+      <c r="B89" s="170"/>
+      <c r="C89" s="170"/>
+      <c r="D89" s="170"/>
+      <c r="E89" s="170"/>
+      <c r="F89" s="170"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="166"/>
-      <c r="C91" s="167"/>
-      <c r="D91" s="167"/>
+      <c r="B91" s="161"/>
+      <c r="C91" s="162"/>
+      <c r="D91" s="162"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -12757,11 +13669,30 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
@@ -12778,30 +13709,11 @@
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:B80 B12:B20 B33:B69" xr:uid="{905403ED-E529-4222-BB17-4B0EE802376B}">

--- a/Factures_Excel/1663 - Multi-Plis.xlsx
+++ b/Factures_Excel/1663 - Multi-Plis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D798FE7-C159-4B07-A144-58D80414A385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E0B8A6-3E76-4464-8F3A-58D65969957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22-12-22" sheetId="4" r:id="rId1"/>
@@ -27,9 +27,10 @@
     <sheet name="2024-11-02 - 24-24602" sheetId="15" r:id="rId12"/>
     <sheet name="2025-03-01 - 25-24759" sheetId="16" r:id="rId13"/>
     <sheet name="2025-03-31 - 25-24868" sheetId="17" r:id="rId14"/>
+    <sheet name="2025-05-18 - 25-24997" sheetId="18" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
@@ -52,6 +53,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="11">'2024-11-02 - 24-24602'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'2025-03-01 - 25-24759'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'2025-03-31 - 25-24868'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'2025-05-18 - 25-24997'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'22-12-22'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'26-05-24'!$A$1:$F$91</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'28-03-24'!$A$1:$F$89</definedName>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="173">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -578,6 +580,24 @@
   </si>
   <si>
     <t xml:space="preserve"> - Analyse et réflexions permettant de répondre aux diverses questions de vos comptables;</t>
+  </si>
+  <si>
+    <t>Le 18 MAI 2025</t>
+  </si>
+  <si>
+    <t>25-24997</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail avec votre comptable à la préparation/révision des déclarations de revenus;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation des 4 formulaires T2066 de transferts familiaux et des diverses lettres requises ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation à la rencontre et rencontre par Vidéoconférence;</t>
   </si>
 </sst>
 </file>
@@ -1550,6 +1570,24 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1562,25 +1600,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1633,9 +1656,6 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1983,6 +2003,72 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D64E4B4-DE4F-9F65-2B47-593A9CB4EBDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14337" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7B7C32-C162-6E1F-FF6B-53BDBEDBC6EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3232,14 +3318,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3260,269 +3346,269 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="165"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="165" t="s">
+      <c r="B35" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="165"/>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="165" t="s">
+      <c r="B37" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="165"/>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="165" t="s">
+      <c r="B39" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="165"/>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="165" t="s">
+      <c r="B41" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="165"/>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="165" t="s">
+      <c r="B43" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="165"/>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="165" t="s">
+      <c r="B45" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="165"/>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="165"/>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="165"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="165"/>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
+      <c r="B54" s="164"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="165"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="164"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="164"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="165"/>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
+      <c r="B64" s="164"/>
+      <c r="C64" s="164"/>
+      <c r="D64" s="164"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3552,17 +3638,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="164"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="165"/>
-      <c r="C68" s="165"/>
-      <c r="D68" s="165"/>
+      <c r="B68" s="164"/>
+      <c r="C68" s="164"/>
+      <c r="D68" s="164"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3669,19 +3755,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="169"/>
-      <c r="C77" s="169"/>
-      <c r="D77" s="169"/>
+      <c r="B77" s="166"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="166"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="166" t="s">
+      <c r="B78" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="166"/>
-      <c r="D78" s="166"/>
+      <c r="C78" s="171"/>
+      <c r="D78" s="171"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3689,9 +3775,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="169"/>
-      <c r="C79" s="169"/>
-      <c r="D79" s="169"/>
+      <c r="B79" s="166"/>
+      <c r="C79" s="166"/>
+      <c r="D79" s="166"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3726,31 +3812,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="163"/>
-      <c r="C83" s="163"/>
-      <c r="D83" s="163"/>
-      <c r="E83" s="163"/>
+      <c r="B83" s="169"/>
+      <c r="C83" s="169"/>
+      <c r="D83" s="169"/>
+      <c r="E83" s="169"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="171" t="s">
+      <c r="A84" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="171"/>
-      <c r="C84" s="171"/>
-      <c r="D84" s="171"/>
-      <c r="E84" s="171"/>
-      <c r="F84" s="171"/>
+      <c r="B84" s="163"/>
+      <c r="C84" s="163"/>
+      <c r="D84" s="163"/>
+      <c r="E84" s="163"/>
+      <c r="F84" s="163"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="167" t="s">
+      <c r="A85" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="167"/>
-      <c r="C85" s="167"/>
-      <c r="D85" s="167"/>
-      <c r="E85" s="167"/>
-      <c r="F85" s="167"/>
+      <c r="B85" s="172"/>
+      <c r="C85" s="172"/>
+      <c r="D85" s="172"/>
+      <c r="E85" s="172"/>
+      <c r="F85" s="172"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3762,26 +3848,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="164"/>
-      <c r="C87" s="164"/>
-      <c r="D87" s="164"/>
-      <c r="E87" s="164"/>
+      <c r="B87" s="170"/>
+      <c r="C87" s="170"/>
+      <c r="D87" s="170"/>
+      <c r="E87" s="170"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="170" t="s">
+      <c r="A88" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="170"/>
-      <c r="C88" s="170"/>
-      <c r="D88" s="170"/>
-      <c r="E88" s="170"/>
-      <c r="F88" s="170"/>
+      <c r="B88" s="162"/>
+      <c r="C88" s="162"/>
+      <c r="D88" s="162"/>
+      <c r="E88" s="162"/>
+      <c r="F88" s="162"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="161"/>
-      <c r="C90" s="162"/>
-      <c r="D90" s="162"/>
+      <c r="B90" s="167"/>
+      <c r="C90" s="168"/>
+      <c r="D90" s="168"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3791,34 +3877,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -3835,6 +3893,34 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -3871,10 +3957,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="172"/>
+      <c r="C1" s="173"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4507,13 +4593,13 @@
       <c r="F29" s="70"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="175" t="s">
+      <c r="A30" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
       <c r="F30" s="71"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5002,10 +5088,10 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="176" t="s">
+      <c r="B81" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="177"/>
+      <c r="C81" s="178"/>
       <c r="D81" s="124"/>
       <c r="E81" s="125">
         <v>30123.45</v>
@@ -5022,30 +5108,30 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="128"/>
-      <c r="B83" s="178"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="180"/>
-      <c r="E83" s="180"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="181"/>
+      <c r="E83" s="181"/>
       <c r="F83" s="129"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="181" t="s">
+      <c r="A84" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="181"/>
-      <c r="C84" s="181"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
+      <c r="B84" s="182"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="183"/>
+      <c r="E84" s="183"/>
       <c r="F84" s="54"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="183" t="s">
+      <c r="A85" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="184"/>
-      <c r="E85" s="184"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="185"/>
+      <c r="E85" s="185"/>
       <c r="F85" s="50"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -5065,21 +5151,21 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="170" t="s">
+      <c r="A88" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="170"/>
-      <c r="C88" s="170"/>
-      <c r="D88" s="170"/>
-      <c r="E88" s="170"/>
-      <c r="F88" s="170"/>
+      <c r="B88" s="162"/>
+      <c r="C88" s="162"/>
+      <c r="D88" s="162"/>
+      <c r="E88" s="162"/>
+      <c r="F88" s="162"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>
-      <c r="B89" s="173"/>
-      <c r="C89" s="173"/>
-      <c r="D89" s="174"/>
-      <c r="E89" s="174"/>
+      <c r="B89" s="174"/>
+      <c r="C89" s="174"/>
+      <c r="D89" s="175"/>
+      <c r="E89" s="175"/>
       <c r="F89" s="50"/>
     </row>
   </sheetData>
@@ -5373,13 +5459,13 @@
       <c r="F29" s="136"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="186" t="s">
+      <c r="A30" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="186"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
+      <c r="B30" s="187"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
       <c r="F30" s="137"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5836,10 +5922,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="187" t="s">
+      <c r="B81" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="188"/>
+      <c r="C81" s="189"/>
       <c r="D81" s="158"/>
       <c r="E81" s="159">
         <v>2414.48</v>
@@ -5856,30 +5942,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="128"/>
-      <c r="B83" s="178"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="179"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
       <c r="F83" s="160"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="181" t="s">
+      <c r="A84" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="181"/>
-      <c r="C84" s="181"/>
-      <c r="D84" s="181"/>
-      <c r="E84" s="181"/>
+      <c r="B84" s="182"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
       <c r="F84" s="113"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="183" t="s">
+      <c r="A85" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="183"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5899,14 +5985,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="185" t="s">
+      <c r="A88" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="185"/>
-      <c r="C88" s="185"/>
-      <c r="D88" s="185"/>
-      <c r="E88" s="185"/>
-      <c r="F88" s="185"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6192,13 +6278,13 @@
       <c r="F29" s="136"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="186" t="s">
+      <c r="A30" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="186"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
+      <c r="B30" s="187"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
       <c r="F30" s="137"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6671,10 +6757,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="187" t="s">
+      <c r="B81" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="188"/>
+      <c r="C81" s="189"/>
       <c r="D81" s="158"/>
       <c r="E81" s="159">
         <v>11037.6</v>
@@ -6691,30 +6777,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="128"/>
-      <c r="B83" s="178"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="179"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
       <c r="F83" s="160"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="181" t="s">
+      <c r="A84" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="181"/>
-      <c r="C84" s="181"/>
-      <c r="D84" s="181"/>
-      <c r="E84" s="181"/>
+      <c r="B84" s="182"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
       <c r="F84" s="113"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="183" t="s">
+      <c r="A85" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="183"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6734,14 +6820,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="185" t="s">
+      <c r="A88" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="185"/>
-      <c r="C88" s="185"/>
-      <c r="D88" s="185"/>
-      <c r="E88" s="185"/>
-      <c r="F88" s="185"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6761,6 +6847,829 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7339C410-1078-4FB1-9517-99120699D516}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="134"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="187"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="137"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="138"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="139"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="142" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="143"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="142" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="145"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="142" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="143"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="142"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="142"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="142"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="142"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="142"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="146"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="144"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="144"/>
+      <c r="F53" s="144"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="144"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="144"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="144"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="144"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="144"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="144"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="150"/>
+      <c r="D64" s="141"/>
+      <c r="E64" s="144"/>
+      <c r="F64" s="144"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="142"/>
+      <c r="C65" s="151" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="152" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="142"/>
+      <c r="C66" s="153">
+        <v>6</v>
+      </c>
+      <c r="D66" s="154">
+        <v>385</v>
+      </c>
+      <c r="E66" s="155"/>
+      <c r="F66" s="155"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="147"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="154"/>
+      <c r="E67" s="144"/>
+      <c r="F67" s="144"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="100"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="101">
+        <v>2310</v>
+      </c>
+      <c r="F69" s="101"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="104"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="105">
+        <v>0</v>
+      </c>
+      <c r="F70" s="105"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="157" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="104"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="105">
+        <v>0</v>
+      </c>
+      <c r="F71" s="105"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="104"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="105">
+        <v>0</v>
+      </c>
+      <c r="F72" s="105"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="100"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="107">
+        <v>2310</v>
+      </c>
+      <c r="F73" s="107"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="108">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="104"/>
+      <c r="E74" s="109">
+        <v>115.5</v>
+      </c>
+      <c r="F74" s="109"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="111">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="104"/>
+      <c r="E75" s="112">
+        <v>230.42</v>
+      </c>
+      <c r="F75" s="109"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="100"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="117">
+        <v>2655.92</v>
+      </c>
+      <c r="F77" s="118"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="110"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="110"/>
+      <c r="E78" s="119"/>
+      <c r="F78" s="110"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="110"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="110"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="119"/>
+      <c r="F80" s="110"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="189"/>
+      <c r="D81" s="158"/>
+      <c r="E81" s="159">
+        <v>2655.92</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="128"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
+      <c r="F83" s="160"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="182"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
+      <c r="F84" s="113"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="184" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="130"/>
+      <c r="B86" s="130"/>
+      <c r="C86" s="130"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="130"/>
+      <c r="B87" s="130"/>
+      <c r="C87" s="130"/>
+      <c r="D87" s="130"/>
+      <c r="E87" s="130"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DD989D-C8BA-4510-83EC-98B5BA5EA2FF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6848,7 +7757,7 @@
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="189"/>
+      <c r="D9" s="161"/>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
     </row>
@@ -6943,7 +7852,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
       <c r="B21" s="59" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
@@ -7014,7 +7923,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F28" s="67"/>
     </row>
@@ -7027,13 +7936,13 @@
       <c r="F29" s="136"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="186" t="s">
+      <c r="A30" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="186"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
+      <c r="B30" s="187"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
       <c r="F30" s="137"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7065,7 +7974,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="78"/>
       <c r="B34" s="142" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C34" s="143"/>
       <c r="D34" s="144"/>
@@ -7085,7 +7994,7 @@
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="78"/>
       <c r="B36" s="142" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C36" s="143"/>
       <c r="D36" s="144"/>
@@ -7094,7 +8003,9 @@
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="78"/>
-      <c r="B37" s="142"/>
+      <c r="B37" s="142" t="s">
+        <v>160</v>
+      </c>
       <c r="C37" s="143"/>
       <c r="D37" s="144"/>
       <c r="E37" s="144"/>
@@ -7102,7 +8013,9 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="78"/>
-      <c r="B38" s="142"/>
+      <c r="B38" s="142" t="s">
+        <v>171</v>
+      </c>
       <c r="C38" s="143"/>
       <c r="D38" s="144"/>
       <c r="E38" s="144"/>
@@ -7110,7 +8023,9 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="78"/>
-      <c r="B39" s="142"/>
+      <c r="B39" s="142" t="s">
+        <v>160</v>
+      </c>
       <c r="C39" s="143"/>
       <c r="D39" s="144"/>
       <c r="E39" s="144"/>
@@ -7118,7 +8033,9 @@
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="78"/>
-      <c r="B40" s="142"/>
+      <c r="B40" s="142" t="s">
+        <v>39</v>
+      </c>
       <c r="C40" s="145"/>
       <c r="D40" s="144"/>
       <c r="E40" s="144"/>
@@ -7126,7 +8043,9 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="78"/>
-      <c r="B41" s="142"/>
+      <c r="B41" s="142" t="s">
+        <v>160</v>
+      </c>
       <c r="C41" s="143"/>
       <c r="D41" s="144"/>
       <c r="E41" s="144"/>
@@ -7134,7 +8053,9 @@
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
-      <c r="B42" s="142"/>
+      <c r="B42" s="142" t="s">
+        <v>172</v>
+      </c>
       <c r="C42" s="143"/>
       <c r="D42" s="144"/>
       <c r="E42" s="144"/>
@@ -7302,7 +8223,7 @@
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="78"/>
-      <c r="B63" s="147"/>
+      <c r="B63" s="142"/>
       <c r="C63" s="148"/>
       <c r="D63" s="149"/>
       <c r="E63" s="144"/>
@@ -7310,7 +8231,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
-      <c r="B64" s="147"/>
+      <c r="B64" s="142"/>
       <c r="C64" s="150"/>
       <c r="D64" s="141"/>
       <c r="E64" s="144"/>
@@ -7332,7 +8253,7 @@
       <c r="A66" s="78"/>
       <c r="B66" s="142"/>
       <c r="C66" s="153">
-        <v>6</v>
+        <v>13.75</v>
       </c>
       <c r="D66" s="154">
         <v>385</v>
@@ -7342,7 +8263,7 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="78"/>
-      <c r="B67" s="147"/>
+      <c r="B67" s="142"/>
       <c r="C67" s="153"/>
       <c r="D67" s="154"/>
       <c r="E67" s="144"/>
@@ -7350,7 +8271,7 @@
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
-      <c r="B68" s="147"/>
+      <c r="B68" s="142"/>
       <c r="C68" s="156"/>
       <c r="D68" s="156"/>
       <c r="E68" s="156"/>
@@ -7364,7 +8285,7 @@
       <c r="C69" s="100"/>
       <c r="D69" s="60"/>
       <c r="E69" s="101">
-        <v>2310</v>
+        <v>5293.75</v>
       </c>
       <c r="F69" s="101"/>
     </row>
@@ -7376,7 +8297,7 @@
       <c r="C70" s="104"/>
       <c r="D70" s="60"/>
       <c r="E70" s="105">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F70" s="105"/>
     </row>
@@ -7412,7 +8333,7 @@
       <c r="C73" s="100"/>
       <c r="D73" s="60"/>
       <c r="E73" s="107">
-        <v>2310</v>
+        <v>5373.75</v>
       </c>
       <c r="F73" s="107"/>
     </row>
@@ -7426,7 +8347,7 @@
       </c>
       <c r="D74" s="104"/>
       <c r="E74" s="109">
-        <v>115.5</v>
+        <v>268.69</v>
       </c>
       <c r="F74" s="109"/>
     </row>
@@ -7440,7 +8361,7 @@
       </c>
       <c r="D75" s="104"/>
       <c r="E75" s="112">
-        <v>230.42</v>
+        <v>536.03</v>
       </c>
       <c r="F75" s="109"/>
     </row>
@@ -7460,7 +8381,7 @@
       <c r="C77" s="100"/>
       <c r="D77" s="116"/>
       <c r="E77" s="117">
-        <v>2655.92</v>
+        <v>6178.4699999999993</v>
       </c>
       <c r="F77" s="118"/>
     </row>
@@ -7494,13 +8415,13 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="187" t="s">
+      <c r="B81" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="188"/>
+      <c r="C81" s="189"/>
       <c r="D81" s="158"/>
       <c r="E81" s="159">
-        <v>2655.92</v>
+        <v>6178.4699999999993</v>
       </c>
       <c r="F81" s="61"/>
     </row>
@@ -7514,30 +8435,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="128"/>
-      <c r="B83" s="178"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="179"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
       <c r="F83" s="160"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="181" t="s">
+      <c r="A84" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="181"/>
-      <c r="C84" s="181"/>
-      <c r="D84" s="181"/>
-      <c r="E84" s="181"/>
+      <c r="B84" s="182"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
       <c r="F84" s="113"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="183" t="s">
+      <c r="A85" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="183"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7557,14 +8478,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="185" t="s">
+      <c r="A88" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="185"/>
-      <c r="C88" s="185"/>
-      <c r="D88" s="185"/>
-      <c r="E88" s="185"/>
-      <c r="F88" s="185"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7725,14 +8646,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -7753,275 +8674,275 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="165" t="s">
+      <c r="B36" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="165" t="s">
+      <c r="B40" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="165" t="s">
+      <c r="B42" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="165" t="s">
+      <c r="B44" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="165" t="s">
+      <c r="B46" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="165" t="s">
+      <c r="B48" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="165" t="s">
+      <c r="B50" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="165" t="s">
+      <c r="B52" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="165" t="s">
+      <c r="B54" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="165"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="165" t="s">
+      <c r="B56" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="165" t="s">
+      <c r="B58" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="164"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="164"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -8051,17 +8972,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="165"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="165"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="164"/>
+      <c r="D66" s="164"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="164"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -8168,19 +9089,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="169"/>
-      <c r="C76" s="169"/>
-      <c r="D76" s="169"/>
+      <c r="B76" s="166"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="166"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="166" t="s">
+      <c r="B77" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="166"/>
-      <c r="D77" s="166"/>
+      <c r="C77" s="171"/>
+      <c r="D77" s="171"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -8188,9 +9109,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="169"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
+      <c r="B78" s="166"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="166"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -8225,31 +9146,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="163"/>
-      <c r="C82" s="163"/>
-      <c r="D82" s="163"/>
-      <c r="E82" s="163"/>
+      <c r="B82" s="169"/>
+      <c r="C82" s="169"/>
+      <c r="D82" s="169"/>
+      <c r="E82" s="169"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="171" t="s">
+      <c r="A83" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="171"/>
-      <c r="C83" s="171"/>
-      <c r="D83" s="171"/>
-      <c r="E83" s="171"/>
-      <c r="F83" s="171"/>
+      <c r="B83" s="163"/>
+      <c r="C83" s="163"/>
+      <c r="D83" s="163"/>
+      <c r="E83" s="163"/>
+      <c r="F83" s="163"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="167" t="s">
+      <c r="A84" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="167"/>
-      <c r="C84" s="167"/>
-      <c r="D84" s="167"/>
-      <c r="E84" s="167"/>
-      <c r="F84" s="167"/>
+      <c r="B84" s="172"/>
+      <c r="C84" s="172"/>
+      <c r="D84" s="172"/>
+      <c r="E84" s="172"/>
+      <c r="F84" s="172"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -8261,26 +9182,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="164"/>
-      <c r="C86" s="164"/>
-      <c r="D86" s="164"/>
-      <c r="E86" s="164"/>
+      <c r="B86" s="170"/>
+      <c r="C86" s="170"/>
+      <c r="D86" s="170"/>
+      <c r="E86" s="170"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="170" t="s">
+      <c r="A87" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="170"/>
-      <c r="C87" s="170"/>
-      <c r="D87" s="170"/>
-      <c r="E87" s="170"/>
-      <c r="F87" s="170"/>
+      <c r="B87" s="162"/>
+      <c r="C87" s="162"/>
+      <c r="D87" s="162"/>
+      <c r="E87" s="162"/>
+      <c r="F87" s="162"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="161"/>
-      <c r="C89" s="162"/>
-      <c r="D89" s="162"/>
+      <c r="B89" s="167"/>
+      <c r="C89" s="168"/>
+      <c r="D89" s="168"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -8290,12 +9211,31 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
@@ -8308,31 +9248,12 @@
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{2D9A563E-17E9-4439-9B4B-21E936A45F74}">
@@ -8490,14 +9411,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -8518,277 +9439,277 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="165" t="s">
+      <c r="B36" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="165" t="s">
+      <c r="B40" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="165" t="s">
+      <c r="B42" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="165" t="s">
+      <c r="B44" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="165" t="s">
+      <c r="B46" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="165" t="s">
+      <c r="B48" s="164" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="165" t="s">
+      <c r="B50" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="165" t="s">
+      <c r="B52" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="165" t="s">
+      <c r="B54" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="165"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="165" t="s">
+      <c r="B56" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="165" t="s">
+      <c r="B58" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="165" t="s">
+      <c r="B60" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="164"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="164"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -8818,17 +9739,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="165"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="165"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="164"/>
+      <c r="D66" s="164"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="164"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -8935,19 +9856,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="169"/>
-      <c r="C76" s="169"/>
-      <c r="D76" s="169"/>
+      <c r="B76" s="166"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="166"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="166" t="s">
+      <c r="B77" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="166"/>
-      <c r="D77" s="166"/>
+      <c r="C77" s="171"/>
+      <c r="D77" s="171"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -8955,9 +9876,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="169"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
+      <c r="B78" s="166"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="166"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -8992,31 +9913,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="163"/>
-      <c r="C82" s="163"/>
-      <c r="D82" s="163"/>
-      <c r="E82" s="163"/>
+      <c r="B82" s="169"/>
+      <c r="C82" s="169"/>
+      <c r="D82" s="169"/>
+      <c r="E82" s="169"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="171" t="s">
+      <c r="A83" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="171"/>
-      <c r="C83" s="171"/>
-      <c r="D83" s="171"/>
-      <c r="E83" s="171"/>
-      <c r="F83" s="171"/>
+      <c r="B83" s="163"/>
+      <c r="C83" s="163"/>
+      <c r="D83" s="163"/>
+      <c r="E83" s="163"/>
+      <c r="F83" s="163"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="167" t="s">
+      <c r="A84" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="167"/>
-      <c r="C84" s="167"/>
-      <c r="D84" s="167"/>
-      <c r="E84" s="167"/>
-      <c r="F84" s="167"/>
+      <c r="B84" s="172"/>
+      <c r="C84" s="172"/>
+      <c r="D84" s="172"/>
+      <c r="E84" s="172"/>
+      <c r="F84" s="172"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -9028,26 +9949,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="164"/>
-      <c r="C86" s="164"/>
-      <c r="D86" s="164"/>
-      <c r="E86" s="164"/>
+      <c r="B86" s="170"/>
+      <c r="C86" s="170"/>
+      <c r="D86" s="170"/>
+      <c r="E86" s="170"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="170" t="s">
+      <c r="A87" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="170"/>
-      <c r="C87" s="170"/>
-      <c r="D87" s="170"/>
-      <c r="E87" s="170"/>
-      <c r="F87" s="170"/>
+      <c r="B87" s="162"/>
+      <c r="C87" s="162"/>
+      <c r="D87" s="162"/>
+      <c r="E87" s="162"/>
+      <c r="F87" s="162"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="161"/>
-      <c r="C89" s="162"/>
-      <c r="D89" s="162"/>
+      <c r="B89" s="167"/>
+      <c r="C89" s="168"/>
+      <c r="D89" s="168"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -9057,6 +9978,35 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B78:D78"/>
@@ -9071,35 +10021,6 @@
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{6447EC37-8CD5-4033-9C4B-3B80CEEA6430}">
@@ -9257,14 +10178,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -9285,277 +10206,277 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="165" t="s">
+      <c r="B36" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="165" t="s">
+      <c r="B40" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="165" t="s">
+      <c r="B42" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="165" t="s">
+      <c r="B44" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="165" t="s">
+      <c r="B46" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="165" t="s">
+      <c r="B48" s="164" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="165" t="s">
+      <c r="B50" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="165" t="s">
+      <c r="B52" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="165" t="s">
+      <c r="B54" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="165"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="165" t="s">
+      <c r="B56" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="165" t="s">
+      <c r="B58" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="165" t="s">
+      <c r="B60" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="164"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="164"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -9585,17 +10506,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="165"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="165"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="164"/>
+      <c r="D66" s="164"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="164"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -9702,19 +10623,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="169"/>
-      <c r="C76" s="169"/>
-      <c r="D76" s="169"/>
+      <c r="B76" s="166"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="166"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="166" t="s">
+      <c r="B77" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="166"/>
-      <c r="D77" s="166"/>
+      <c r="C77" s="171"/>
+      <c r="D77" s="171"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -9722,9 +10643,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="169"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
+      <c r="B78" s="166"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="166"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -9759,31 +10680,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="163"/>
-      <c r="C82" s="163"/>
-      <c r="D82" s="163"/>
-      <c r="E82" s="163"/>
+      <c r="B82" s="169"/>
+      <c r="C82" s="169"/>
+      <c r="D82" s="169"/>
+      <c r="E82" s="169"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="171" t="s">
+      <c r="A83" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="171"/>
-      <c r="C83" s="171"/>
-      <c r="D83" s="171"/>
-      <c r="E83" s="171"/>
-      <c r="F83" s="171"/>
+      <c r="B83" s="163"/>
+      <c r="C83" s="163"/>
+      <c r="D83" s="163"/>
+      <c r="E83" s="163"/>
+      <c r="F83" s="163"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="167" t="s">
+      <c r="A84" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="167"/>
-      <c r="C84" s="167"/>
-      <c r="D84" s="167"/>
-      <c r="E84" s="167"/>
-      <c r="F84" s="167"/>
+      <c r="B84" s="172"/>
+      <c r="C84" s="172"/>
+      <c r="D84" s="172"/>
+      <c r="E84" s="172"/>
+      <c r="F84" s="172"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -9795,26 +10716,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="164"/>
-      <c r="C86" s="164"/>
-      <c r="D86" s="164"/>
-      <c r="E86" s="164"/>
+      <c r="B86" s="170"/>
+      <c r="C86" s="170"/>
+      <c r="D86" s="170"/>
+      <c r="E86" s="170"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="170" t="s">
+      <c r="A87" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="170"/>
-      <c r="C87" s="170"/>
-      <c r="D87" s="170"/>
-      <c r="E87" s="170"/>
-      <c r="F87" s="170"/>
+      <c r="B87" s="162"/>
+      <c r="C87" s="162"/>
+      <c r="D87" s="162"/>
+      <c r="E87" s="162"/>
+      <c r="F87" s="162"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="161"/>
-      <c r="C89" s="162"/>
-      <c r="D89" s="162"/>
+      <c r="B89" s="167"/>
+      <c r="C89" s="168"/>
+      <c r="D89" s="168"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -9824,6 +10745,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
@@ -9836,37 +10788,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{F72F2B1D-2364-4F39-8EA3-2E5783030665}">
@@ -10024,14 +10945,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -10052,253 +10973,253 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="164" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="165" t="s">
+      <c r="B36" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="164" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="165" t="s">
+      <c r="B40" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="165" t="s">
+      <c r="B42" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="165" t="s">
+      <c r="B44" s="164" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="165" t="s">
+      <c r="B46" s="164" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="165" t="s">
+      <c r="B48" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="165" t="s">
+      <c r="B50" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="165" t="s">
+      <c r="B52" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="165"/>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
+      <c r="B54" s="164"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="165"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
@@ -10328,17 +11249,17 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="165"/>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
+      <c r="B64" s="164"/>
+      <c r="C64" s="164"/>
+      <c r="D64" s="164"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="165"/>
-      <c r="C65" s="165"/>
-      <c r="D65" s="165"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="164"/>
+      <c r="D65" s="164"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -10445,19 +11366,19 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21"/>
-      <c r="B74" s="169"/>
-      <c r="C74" s="169"/>
-      <c r="D74" s="169"/>
+      <c r="B74" s="166"/>
+      <c r="C74" s="166"/>
+      <c r="D74" s="166"/>
       <c r="E74" s="36"/>
       <c r="F74" s="21"/>
     </row>
     <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="21"/>
-      <c r="B75" s="166" t="s">
+      <c r="B75" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="166"/>
-      <c r="D75" s="166"/>
+      <c r="C75" s="171"/>
+      <c r="D75" s="171"/>
       <c r="E75" s="36">
         <v>0</v>
       </c>
@@ -10465,9 +11386,9 @@
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="169"/>
-      <c r="C76" s="169"/>
-      <c r="D76" s="169"/>
+      <c r="B76" s="166"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="166"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
@@ -10502,31 +11423,31 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="163"/>
-      <c r="C80" s="163"/>
-      <c r="D80" s="163"/>
-      <c r="E80" s="163"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="169"/>
+      <c r="D80" s="169"/>
+      <c r="E80" s="169"/>
       <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="171" t="s">
+      <c r="A81" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="171"/>
-      <c r="C81" s="171"/>
-      <c r="D81" s="171"/>
-      <c r="E81" s="171"/>
-      <c r="F81" s="171"/>
+      <c r="B81" s="163"/>
+      <c r="C81" s="163"/>
+      <c r="D81" s="163"/>
+      <c r="E81" s="163"/>
+      <c r="F81" s="163"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="167" t="s">
+      <c r="A82" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="B82" s="167"/>
-      <c r="C82" s="167"/>
-      <c r="D82" s="167"/>
-      <c r="E82" s="167"/>
-      <c r="F82" s="167"/>
+      <c r="B82" s="172"/>
+      <c r="C82" s="172"/>
+      <c r="D82" s="172"/>
+      <c r="E82" s="172"/>
+      <c r="F82" s="172"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
@@ -10538,26 +11459,26 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="164"/>
-      <c r="C84" s="164"/>
-      <c r="D84" s="164"/>
-      <c r="E84" s="164"/>
+      <c r="B84" s="170"/>
+      <c r="C84" s="170"/>
+      <c r="D84" s="170"/>
+      <c r="E84" s="170"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="170" t="s">
+      <c r="A85" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="170"/>
-      <c r="C85" s="170"/>
-      <c r="D85" s="170"/>
-      <c r="E85" s="170"/>
-      <c r="F85" s="170"/>
+      <c r="B85" s="162"/>
+      <c r="C85" s="162"/>
+      <c r="D85" s="162"/>
+      <c r="E85" s="162"/>
+      <c r="F85" s="162"/>
     </row>
     <row r="87" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="161"/>
-      <c r="C87" s="162"/>
-      <c r="D87" s="162"/>
+      <c r="B87" s="167"/>
+      <c r="C87" s="168"/>
+      <c r="D87" s="168"/>
     </row>
     <row r="88" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -10567,23 +11488,18 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -10596,18 +11512,23 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:F85"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:B76 B12:B20 B33:B65" xr:uid="{2691E24E-F965-4BA1-8053-4BEF7731BFED}">
@@ -10765,14 +11686,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -10793,279 +11714,279 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="165"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="165" t="s">
+      <c r="B35" s="164" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="165"/>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="165" t="s">
+      <c r="B37" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="165"/>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="165" t="s">
+      <c r="B39" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="165"/>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="165" t="s">
+      <c r="B41" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="165"/>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="165" t="s">
+      <c r="B43" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="165"/>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="165" t="s">
+      <c r="B45" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="165"/>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="165" t="s">
+      <c r="B47" s="164" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="165"/>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="165" t="s">
+      <c r="B49" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="165" t="s">
+      <c r="B51" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="165"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="165" t="s">
+      <c r="B53" s="164" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="165"/>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
+      <c r="B54" s="164"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="165" t="s">
+      <c r="B55" s="164" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="165" t="s">
+      <c r="B57" s="164" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="165" t="s">
+      <c r="B59" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="165" t="s">
+      <c r="B61" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="164"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="165" t="s">
+      <c r="B63" s="164" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="164"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -11095,17 +12016,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="165"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="165"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="164"/>
+      <c r="D66" s="164"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="164"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -11212,19 +12133,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="169"/>
-      <c r="C76" s="169"/>
-      <c r="D76" s="169"/>
+      <c r="B76" s="166"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="166"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="166" t="s">
+      <c r="B77" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="166"/>
-      <c r="D77" s="166"/>
+      <c r="C77" s="171"/>
+      <c r="D77" s="171"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -11232,9 +12153,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="169"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
+      <c r="B78" s="166"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="166"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -11269,31 +12190,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="163"/>
-      <c r="C82" s="163"/>
-      <c r="D82" s="163"/>
-      <c r="E82" s="163"/>
+      <c r="B82" s="169"/>
+      <c r="C82" s="169"/>
+      <c r="D82" s="169"/>
+      <c r="E82" s="169"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="171" t="s">
+      <c r="A83" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="171"/>
-      <c r="C83" s="171"/>
-      <c r="D83" s="171"/>
-      <c r="E83" s="171"/>
-      <c r="F83" s="171"/>
+      <c r="B83" s="163"/>
+      <c r="C83" s="163"/>
+      <c r="D83" s="163"/>
+      <c r="E83" s="163"/>
+      <c r="F83" s="163"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="167" t="s">
+      <c r="A84" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="167"/>
-      <c r="C84" s="167"/>
-      <c r="D84" s="167"/>
-      <c r="E84" s="167"/>
-      <c r="F84" s="167"/>
+      <c r="B84" s="172"/>
+      <c r="C84" s="172"/>
+      <c r="D84" s="172"/>
+      <c r="E84" s="172"/>
+      <c r="F84" s="172"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -11305,26 +12226,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="164"/>
-      <c r="C86" s="164"/>
-      <c r="D86" s="164"/>
-      <c r="E86" s="164"/>
+      <c r="B86" s="170"/>
+      <c r="C86" s="170"/>
+      <c r="D86" s="170"/>
+      <c r="E86" s="170"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="170" t="s">
+      <c r="A87" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="170"/>
-      <c r="C87" s="170"/>
-      <c r="D87" s="170"/>
-      <c r="E87" s="170"/>
-      <c r="F87" s="170"/>
+      <c r="B87" s="162"/>
+      <c r="C87" s="162"/>
+      <c r="D87" s="162"/>
+      <c r="E87" s="162"/>
+      <c r="F87" s="162"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="161"/>
-      <c r="C89" s="162"/>
-      <c r="D89" s="162"/>
+      <c r="B89" s="167"/>
+      <c r="C89" s="168"/>
+      <c r="D89" s="168"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -11334,6 +12255,35 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B76:D76"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
@@ -11348,35 +12298,6 @@
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{C3AF6657-7FA5-4CC7-9BF9-B43291DF59DB}">
@@ -11534,14 +12455,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -11562,277 +12483,277 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="165" t="s">
+      <c r="B36" s="164" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="164" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="165" t="s">
+      <c r="B40" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="165" t="s">
+      <c r="B42" s="164" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="165" t="s">
+      <c r="B44" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="165" t="s">
+      <c r="B46" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="165" t="s">
+      <c r="B48" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="165" t="s">
+      <c r="B50" s="164" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="165" t="s">
+      <c r="B52" s="164" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="165"/>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
+      <c r="B54" s="164"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="165"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="164"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="164"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="165"/>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
+      <c r="B64" s="164"/>
+      <c r="C64" s="164"/>
+      <c r="D64" s="164"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -11862,17 +12783,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="164"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="165"/>
-      <c r="C68" s="165"/>
-      <c r="D68" s="165"/>
+      <c r="B68" s="164"/>
+      <c r="C68" s="164"/>
+      <c r="D68" s="164"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -11979,19 +12900,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="169"/>
-      <c r="C77" s="169"/>
-      <c r="D77" s="169"/>
+      <c r="B77" s="166"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="166"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="166" t="s">
+      <c r="B78" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="166"/>
-      <c r="D78" s="166"/>
+      <c r="C78" s="171"/>
+      <c r="D78" s="171"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -11999,9 +12920,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="169"/>
-      <c r="C79" s="169"/>
-      <c r="D79" s="169"/>
+      <c r="B79" s="166"/>
+      <c r="C79" s="166"/>
+      <c r="D79" s="166"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -12036,31 +12957,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="163"/>
-      <c r="C83" s="163"/>
-      <c r="D83" s="163"/>
-      <c r="E83" s="163"/>
+      <c r="B83" s="169"/>
+      <c r="C83" s="169"/>
+      <c r="D83" s="169"/>
+      <c r="E83" s="169"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="171" t="s">
+      <c r="A84" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="171"/>
-      <c r="C84" s="171"/>
-      <c r="D84" s="171"/>
-      <c r="E84" s="171"/>
-      <c r="F84" s="171"/>
+      <c r="B84" s="163"/>
+      <c r="C84" s="163"/>
+      <c r="D84" s="163"/>
+      <c r="E84" s="163"/>
+      <c r="F84" s="163"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="167" t="s">
+      <c r="A85" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="167"/>
-      <c r="C85" s="167"/>
-      <c r="D85" s="167"/>
-      <c r="E85" s="167"/>
-      <c r="F85" s="167"/>
+      <c r="B85" s="172"/>
+      <c r="C85" s="172"/>
+      <c r="D85" s="172"/>
+      <c r="E85" s="172"/>
+      <c r="F85" s="172"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -12072,26 +12993,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="164"/>
-      <c r="C87" s="164"/>
-      <c r="D87" s="164"/>
-      <c r="E87" s="164"/>
+      <c r="B87" s="170"/>
+      <c r="C87" s="170"/>
+      <c r="D87" s="170"/>
+      <c r="E87" s="170"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="170" t="s">
+      <c r="A88" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="170"/>
-      <c r="C88" s="170"/>
-      <c r="D88" s="170"/>
-      <c r="E88" s="170"/>
-      <c r="F88" s="170"/>
+      <c r="B88" s="162"/>
+      <c r="C88" s="162"/>
+      <c r="D88" s="162"/>
+      <c r="E88" s="162"/>
+      <c r="F88" s="162"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="161"/>
-      <c r="C90" s="162"/>
-      <c r="D90" s="162"/>
+      <c r="B90" s="167"/>
+      <c r="C90" s="168"/>
+      <c r="D90" s="168"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -12101,34 +13022,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B63:D63"/>
@@ -12145,6 +13038,34 @@
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B78:D78"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{D70F66AE-A1B8-43CC-BAF9-2D574FC727B1}">
@@ -12302,14 +13223,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -12330,287 +13251,287 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="164" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="165" t="s">
+      <c r="B36" s="164" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="165" t="s">
+      <c r="B40" s="164" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="165" t="s">
+      <c r="B42" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="165" t="s">
+      <c r="B44" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="165" t="s">
+      <c r="B46" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="165"/>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="165"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="165"/>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
+      <c r="B54" s="164"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="165"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="164"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="164"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="165"/>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
+      <c r="B64" s="164"/>
+      <c r="C64" s="164"/>
+      <c r="D64" s="164"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="165"/>
-      <c r="C65" s="165"/>
-      <c r="D65" s="165"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="164"/>
+      <c r="D65" s="164"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="165"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="165"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="164"/>
+      <c r="D66" s="164"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
@@ -12640,17 +13561,17 @@
     </row>
     <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="165"/>
-      <c r="C69" s="165"/>
-      <c r="D69" s="165"/>
+      <c r="B69" s="164"/>
+      <c r="C69" s="164"/>
+      <c r="D69" s="164"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
     <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21"/>
-      <c r="B70" s="165"/>
-      <c r="C70" s="165"/>
-      <c r="D70" s="165"/>
+      <c r="B70" s="164"/>
+      <c r="C70" s="164"/>
+      <c r="D70" s="164"/>
       <c r="E70" s="28"/>
       <c r="F70" s="21"/>
     </row>
@@ -12757,19 +13678,19 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="169"/>
-      <c r="C79" s="169"/>
-      <c r="D79" s="169"/>
+      <c r="B79" s="166"/>
+      <c r="C79" s="166"/>
+      <c r="D79" s="166"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="166" t="s">
+      <c r="B80" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="166"/>
-      <c r="D80" s="166"/>
+      <c r="C80" s="171"/>
+      <c r="D80" s="171"/>
       <c r="E80" s="36">
         <v>0</v>
       </c>
@@ -12777,9 +13698,9 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
-      <c r="B81" s="169"/>
-      <c r="C81" s="169"/>
-      <c r="D81" s="169"/>
+      <c r="B81" s="166"/>
+      <c r="C81" s="166"/>
+      <c r="D81" s="166"/>
       <c r="E81" s="36"/>
       <c r="F81" s="21"/>
     </row>
@@ -12814,31 +13735,31 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
-      <c r="B85" s="163"/>
-      <c r="C85" s="163"/>
-      <c r="D85" s="163"/>
-      <c r="E85" s="163"/>
+      <c r="B85" s="169"/>
+      <c r="C85" s="169"/>
+      <c r="D85" s="169"/>
+      <c r="E85" s="169"/>
       <c r="F85" s="21"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="171" t="s">
+      <c r="A86" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="171"/>
-      <c r="C86" s="171"/>
-      <c r="D86" s="171"/>
-      <c r="E86" s="171"/>
-      <c r="F86" s="171"/>
+      <c r="B86" s="163"/>
+      <c r="C86" s="163"/>
+      <c r="D86" s="163"/>
+      <c r="E86" s="163"/>
+      <c r="F86" s="163"/>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="167" t="s">
+      <c r="A87" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="167"/>
-      <c r="C87" s="167"/>
-      <c r="D87" s="167"/>
-      <c r="E87" s="167"/>
-      <c r="F87" s="167"/>
+      <c r="B87" s="172"/>
+      <c r="C87" s="172"/>
+      <c r="D87" s="172"/>
+      <c r="E87" s="172"/>
+      <c r="F87" s="172"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
@@ -12850,26 +13771,26 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="21"/>
-      <c r="B89" s="164"/>
-      <c r="C89" s="164"/>
-      <c r="D89" s="164"/>
-      <c r="E89" s="164"/>
+      <c r="B89" s="170"/>
+      <c r="C89" s="170"/>
+      <c r="D89" s="170"/>
+      <c r="E89" s="170"/>
       <c r="F89" s="21"/>
     </row>
     <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="170" t="s">
+      <c r="A90" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="170"/>
-      <c r="C90" s="170"/>
-      <c r="D90" s="170"/>
-      <c r="E90" s="170"/>
-      <c r="F90" s="170"/>
+      <c r="B90" s="162"/>
+      <c r="C90" s="162"/>
+      <c r="D90" s="162"/>
+      <c r="E90" s="162"/>
+      <c r="F90" s="162"/>
     </row>
     <row r="92" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="161"/>
-      <c r="C92" s="162"/>
-      <c r="D92" s="162"/>
+      <c r="B92" s="167"/>
+      <c r="C92" s="168"/>
+      <c r="D92" s="168"/>
     </row>
     <row r="93" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -12879,36 +13800,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
     <mergeCell ref="A90:F90"/>
     <mergeCell ref="B92:D92"/>
     <mergeCell ref="B49:D49"/>
@@ -12925,6 +13816,36 @@
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79:B81 B12:B20 B33:B70" xr:uid="{C1A468C9-767C-466C-8AD0-E4ECF40D79B5}">
@@ -13082,14 +14003,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -13110,297 +14031,297 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="165" t="s">
+      <c r="B36" s="164" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="164" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="165" t="s">
+      <c r="B40" s="164" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="165" t="s">
+      <c r="B42" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="165" t="s">
+      <c r="B44" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="165" t="s">
+      <c r="B46" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="165" t="s">
+      <c r="B48" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="165" t="s">
+      <c r="B50" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="165" t="s">
+      <c r="B52" s="164" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="165" t="s">
+      <c r="B54" s="164" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="165"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="165" t="s">
+      <c r="B56" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="165" t="s">
+      <c r="B58" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="165" t="s">
+      <c r="B60" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="165" t="s">
+      <c r="B62" s="164" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="164"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="164"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="165" t="s">
+      <c r="B64" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
+      <c r="C64" s="164"/>
+      <c r="D64" s="164"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="165"/>
-      <c r="C65" s="165"/>
-      <c r="D65" s="165"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="164"/>
+      <c r="D65" s="164"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -13430,17 +14351,17 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="165"/>
-      <c r="C68" s="165"/>
-      <c r="D68" s="165"/>
+      <c r="B68" s="164"/>
+      <c r="C68" s="164"/>
+      <c r="D68" s="164"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21"/>
-      <c r="B69" s="165"/>
-      <c r="C69" s="165"/>
-      <c r="D69" s="165"/>
+      <c r="B69" s="164"/>
+      <c r="C69" s="164"/>
+      <c r="D69" s="164"/>
       <c r="E69" s="28"/>
       <c r="F69" s="21"/>
     </row>
@@ -13547,19 +14468,19 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="169"/>
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
+      <c r="B78" s="166"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="166"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="166" t="s">
+      <c r="B79" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="166"/>
-      <c r="D79" s="166"/>
+      <c r="C79" s="171"/>
+      <c r="D79" s="171"/>
       <c r="E79" s="36">
         <v>0</v>
       </c>
@@ -13567,9 +14488,9 @@
     </row>
     <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="169"/>
-      <c r="C80" s="169"/>
-      <c r="D80" s="169"/>
+      <c r="B80" s="166"/>
+      <c r="C80" s="166"/>
+      <c r="D80" s="166"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
@@ -13604,31 +14525,31 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="163"/>
-      <c r="C84" s="163"/>
-      <c r="D84" s="163"/>
-      <c r="E84" s="163"/>
+      <c r="B84" s="169"/>
+      <c r="C84" s="169"/>
+      <c r="D84" s="169"/>
+      <c r="E84" s="169"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="171" t="s">
+      <c r="A85" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="171"/>
-      <c r="C85" s="171"/>
-      <c r="D85" s="171"/>
-      <c r="E85" s="171"/>
-      <c r="F85" s="171"/>
+      <c r="B85" s="163"/>
+      <c r="C85" s="163"/>
+      <c r="D85" s="163"/>
+      <c r="E85" s="163"/>
+      <c r="F85" s="163"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="167" t="s">
+      <c r="A86" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="167"/>
-      <c r="C86" s="167"/>
-      <c r="D86" s="167"/>
-      <c r="E86" s="167"/>
-      <c r="F86" s="167"/>
+      <c r="B86" s="172"/>
+      <c r="C86" s="172"/>
+      <c r="D86" s="172"/>
+      <c r="E86" s="172"/>
+      <c r="F86" s="172"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
@@ -13640,26 +14561,26 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
-      <c r="B88" s="164"/>
-      <c r="C88" s="164"/>
-      <c r="D88" s="164"/>
-      <c r="E88" s="164"/>
+      <c r="B88" s="170"/>
+      <c r="C88" s="170"/>
+      <c r="D88" s="170"/>
+      <c r="E88" s="170"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="170" t="s">
+      <c r="A89" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="170"/>
-      <c r="C89" s="170"/>
-      <c r="D89" s="170"/>
-      <c r="E89" s="170"/>
-      <c r="F89" s="170"/>
+      <c r="B89" s="162"/>
+      <c r="C89" s="162"/>
+      <c r="D89" s="162"/>
+      <c r="E89" s="162"/>
+      <c r="F89" s="162"/>
     </row>
     <row r="91" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="161"/>
-      <c r="C91" s="162"/>
-      <c r="D91" s="162"/>
+      <c r="B91" s="167"/>
+      <c r="C91" s="168"/>
+      <c r="D91" s="168"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -13669,6 +14590,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
     <mergeCell ref="A86:F86"/>
     <mergeCell ref="B88:E88"/>
     <mergeCell ref="A89:F89"/>
@@ -13685,35 +14635,6 @@
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78:B80 B12:B20 B33:B69" xr:uid="{905403ED-E529-4222-BB17-4B0EE802376B}">
